--- a/Tests/DB Tests.xlsx
+++ b/Tests/DB Tests.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD_VSB\Git VŠB - StandAlones\DP-KVDBS\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4BA881-5900-432A-8BF1-441E150DCE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F2C299-996E-4A96-AFB9-AEEE0AB0B78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Workloads - data" sheetId="1" r:id="rId1"/>
     <sheet name="Redis" sheetId="2" r:id="rId2"/>
     <sheet name="Riak" sheetId="3" r:id="rId3"/>
     <sheet name="Aerospike" sheetId="4" r:id="rId4"/>
+    <sheet name="Memcached" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="21">
   <si>
     <t>DB</t>
   </si>
@@ -99,6 +100,9 @@
   </si>
   <si>
     <t>50 272</t>
+  </si>
+  <si>
+    <t>Memcached</t>
   </si>
 </sst>
 </file>
@@ -230,9 +234,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Workloads - data'!$C$3:$E$3</c:f>
+              <c:f>'Workloads - data'!$C$3:$F$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Redis</c:v>
                 </c:pt>
@@ -242,15 +246,18 @@
                 <c:pt idx="2">
                   <c:v>Aerospike</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>Memcached</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - data'!$C$16:$E$16</c:f>
+              <c:f>'Workloads - data'!$C$16:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1264.6666666666667</c:v>
                 </c:pt>
@@ -259,6 +266,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -518,9 +528,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Workloads - data'!$C$3:$E$3</c:f>
+              <c:f>'Workloads - data'!$C$3:$F$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Redis</c:v>
                 </c:pt>
@@ -530,15 +540,18 @@
                 <c:pt idx="2">
                   <c:v>Aerospike</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>Memcached</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - data'!$C$17:$E$17</c:f>
+              <c:f>'Workloads - data'!$C$17:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1891.6666666666667</c:v>
                 </c:pt>
@@ -547,6 +560,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1538.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8240,10 +8256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8252,12 +8268,12 @@
     <col min="4" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -8270,8 +8286,11 @@
       <c r="E3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -8287,8 +8306,12 @@
         <f>Aerospike!C8</f>
         <v>196849.33333333334</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f>Memcached!D8</f>
+        <v>241009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -8304,8 +8327,12 @@
         <f>Aerospike!C9</f>
         <v>5081.1244477222363</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f>Memcached!D9</f>
+        <v>4149.2226431378003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -8324,8 +8351,12 @@
         <f>Aerospike!C10</f>
         <v>499106</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f>Memcached!D10</f>
+        <v>500683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -8341,8 +8372,12 @@
         <f>Aerospike!C11</f>
         <v>785.8631093017184</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f>Memcached!D11</f>
+        <v>958.95825702090895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -8358,8 +8393,12 @@
         <f>Aerospike!C12</f>
         <v>319.66666666666669</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f>Memcached!D12</f>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -8375,8 +8414,12 @@
         <f>Aerospike!C13</f>
         <v>27311</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f>Memcached!D13</f>
+        <v>80511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -8392,8 +8435,12 @@
         <f>Aerospike!C14</f>
         <v>1122.6666666666667</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f>Memcached!D14</f>
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -8409,8 +8456,12 @@
         <f>Aerospike!C15</f>
         <v>1540.3333333333333</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f>Memcached!D15</f>
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -8429,8 +8480,12 @@
         <f>Aerospike!C16</f>
         <v>500894</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f>Memcached!D16</f>
+        <v>499317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -8446,8 +8501,12 @@
         <f>Aerospike!C17</f>
         <v>782.67998551661094</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f>Memcached!D17</f>
+        <v>958.12489460603103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -8463,8 +8522,12 @@
         <f>Aerospike!C18</f>
         <v>314.33333333333331</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f>Memcached!D18</f>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -8480,8 +8543,12 @@
         <f>Aerospike!C19</f>
         <v>29753.666666666668</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f>Memcached!D19</f>
+        <v>64031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -8497,8 +8564,12 @@
         <f>Aerospike!C20</f>
         <v>1121</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f>Memcached!D20</f>
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -8514,13 +8585,17 @@
         <f>Aerospike!C21</f>
         <v>1538.3333333333333</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f>Memcached!D21</f>
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>0</v>
       </c>
@@ -8533,8 +8608,11 @@
       <c r="E22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -8551,7 +8629,7 @@
         <v>202264</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>5</v>
       </c>
@@ -8568,7 +8646,7 @@
         <v>4945.3776482559506</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -8588,7 +8666,7 @@
         <v>949706</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>8</v>
       </c>
@@ -8605,7 +8683,7 @@
         <v>805.96629449109275</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -8622,7 +8700,7 @@
         <v>313.33333333333331</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -8639,7 +8717,7 @@
         <v>25732.333333333332</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>12</v>
       </c>
@@ -8656,7 +8734,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>13</v>
       </c>
@@ -8673,7 +8751,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -8693,7 +8771,7 @@
         <v>50294</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>8</v>
       </c>
@@ -8710,7 +8788,7 @@
         <v>809.97773750073532</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -8727,7 +8805,7 @@
         <v>341.33333333333331</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -8744,7 +8822,7 @@
         <v>17132.333333333332</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>12</v>
       </c>
@@ -8761,7 +8839,7 @@
         <v>1197.6666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>13</v>
       </c>
@@ -8778,12 +8856,12 @@
         <v>1779.6666666666667</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>0</v>
       </c>
@@ -8796,8 +8874,11 @@
       <c r="E41" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>4</v>
       </c>
@@ -8814,7 +8895,7 @@
         <v>209528</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>5</v>
       </c>
@@ -8831,7 +8912,7 @@
         <v>4778.1274961757899</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -8851,7 +8932,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>8</v>
       </c>
@@ -8868,7 +8949,7 @@
         <v>835.167418</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>10</v>
       </c>
@@ -8885,7 +8966,7 @@
         <v>319.33333333333331</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -8902,7 +8983,7 @@
         <v>41881.666666666664</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>12</v>
       </c>
@@ -8946,8 +9027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CA6185-A47A-430A-AEC2-7ED0A4C5D4C7}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10984,4 +11065,558 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C80EE16-73D0-4778-A1BC-D419AAA6A283}">
+  <dimension ref="A1:F53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f>AVERAGEA(D8:F8)</f>
+        <v>243409.33333333334</v>
+      </c>
+      <c r="D8">
+        <v>241009</v>
+      </c>
+      <c r="E8">
+        <v>242527</v>
+      </c>
+      <c r="F8">
+        <v>246692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:C21" si="0">AVERAGEA(D9:F9)</f>
+        <v>4108.7042113635098</v>
+      </c>
+      <c r="D9">
+        <v>4149.2226431378003</v>
+      </c>
+      <c r="E9">
+        <v>4123.2522564497904</v>
+      </c>
+      <c r="F9">
+        <v>4053.63773450294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <f>D10</f>
+        <v>500683</v>
+      </c>
+      <c r="D10">
+        <v>500683</v>
+      </c>
+      <c r="E10">
+        <v>501166</v>
+      </c>
+      <c r="F10">
+        <v>499564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>967.90216610373329</v>
+      </c>
+      <c r="D11">
+        <v>958.95825702090895</v>
+      </c>
+      <c r="E11">
+        <v>963.71946820015705</v>
+      </c>
+      <c r="F11">
+        <v>981.028773090134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>395.33333333333331</v>
+      </c>
+      <c r="D12">
+        <v>391</v>
+      </c>
+      <c r="E12">
+        <v>395</v>
+      </c>
+      <c r="F12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>83177.666666666672</v>
+      </c>
+      <c r="D13">
+        <v>80511</v>
+      </c>
+      <c r="E13">
+        <v>67519</v>
+      </c>
+      <c r="F13">
+        <v>101503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1385</v>
+      </c>
+      <c r="D14">
+        <v>1362</v>
+      </c>
+      <c r="E14">
+        <v>1370</v>
+      </c>
+      <c r="F14">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1846</v>
+      </c>
+      <c r="D15">
+        <v>1767</v>
+      </c>
+      <c r="E15">
+        <v>1788</v>
+      </c>
+      <c r="F15">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <f>D16</f>
+        <v>499317</v>
+      </c>
+      <c r="D16">
+        <v>499317</v>
+      </c>
+      <c r="E16">
+        <v>498834</v>
+      </c>
+      <c r="F16">
+        <v>500436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>967.90354078356597</v>
+      </c>
+      <c r="D17">
+        <v>958.12489460603103</v>
+      </c>
+      <c r="E17">
+        <v>964.71301475039797</v>
+      </c>
+      <c r="F17">
+        <v>980.87271299426902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>407.66666666666669</v>
+      </c>
+      <c r="D18">
+        <v>415</v>
+      </c>
+      <c r="E18">
+        <v>403</v>
+      </c>
+      <c r="F18">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>82249.666666666672</v>
+      </c>
+      <c r="D19">
+        <v>64031</v>
+      </c>
+      <c r="E19">
+        <v>81663</v>
+      </c>
+      <c r="F19">
+        <v>101055</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1387.6666666666667</v>
+      </c>
+      <c r="D20">
+        <v>1363</v>
+      </c>
+      <c r="E20">
+        <v>1374</v>
+      </c>
+      <c r="F20">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1850.6666666666667</v>
+      </c>
+      <c r="D21">
+        <v>1758</v>
+      </c>
+      <c r="E21">
+        <v>1789</v>
+      </c>
+      <c r="F21">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="e">
+        <f>AVERAGEA(D27:F27)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="e">
+        <f t="shared" ref="C28:C40" si="1">AVERAGEA(D28:F28)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <f>D29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <f>D35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="e">
+        <f>AVERAGEA(D46:F46)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="e">
+        <f t="shared" ref="C47:C53" si="2">AVERAGEA(D47:F47)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <f>D48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="e">
+        <f>AVERAGEA(D49:F49)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tests/DB Tests.xlsx
+++ b/Tests/DB Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD_VSB\Git VŠB - StandAlones\DP-KVDBS\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F2C299-996E-4A96-AFB9-AEEE0AB0B78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F6760F-A32D-45C6-A47A-0038E83A2740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Workloads - data" sheetId="1" r:id="rId1"/>
@@ -268,7 +268,7 @@
                   <c:v>1121</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1363</c:v>
+                  <c:v>1387.6666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -562,7 +562,7 @@
                   <c:v>1538.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1758</c:v>
+                  <c:v>1850.6666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8258,8 +8258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8307,8 +8307,8 @@
         <v>196849.33333333334</v>
       </c>
       <c r="F4">
-        <f>Memcached!D8</f>
-        <v>241009</v>
+        <f>Memcached!C8</f>
+        <v>243409.33333333334</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8328,8 +8328,8 @@
         <v>5081.1244477222363</v>
       </c>
       <c r="F5">
-        <f>Memcached!D9</f>
-        <v>4149.2226431378003</v>
+        <f>Memcached!C9</f>
+        <v>4108.7042113635098</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8352,7 +8352,7 @@
         <v>499106</v>
       </c>
       <c r="F6">
-        <f>Memcached!D10</f>
+        <f>Memcached!C10</f>
         <v>500683</v>
       </c>
     </row>
@@ -8373,8 +8373,8 @@
         <v>785.8631093017184</v>
       </c>
       <c r="F7">
-        <f>Memcached!D11</f>
-        <v>958.95825702090895</v>
+        <f>Memcached!C11</f>
+        <v>967.90216610373329</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8394,8 +8394,8 @@
         <v>319.66666666666669</v>
       </c>
       <c r="F8">
-        <f>Memcached!D12</f>
-        <v>391</v>
+        <f>Memcached!C12</f>
+        <v>395.33333333333331</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8415,8 +8415,8 @@
         <v>27311</v>
       </c>
       <c r="F9">
-        <f>Memcached!D13</f>
-        <v>80511</v>
+        <f>Memcached!C13</f>
+        <v>83177.666666666672</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8436,8 +8436,8 @@
         <v>1122.6666666666667</v>
       </c>
       <c r="F10">
-        <f>Memcached!D14</f>
-        <v>1362</v>
+        <f>Memcached!C14</f>
+        <v>1385</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8457,8 +8457,8 @@
         <v>1540.3333333333333</v>
       </c>
       <c r="F11">
-        <f>Memcached!D15</f>
-        <v>1767</v>
+        <f>Memcached!C15</f>
+        <v>1846</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8481,7 +8481,7 @@
         <v>500894</v>
       </c>
       <c r="F12">
-        <f>Memcached!D16</f>
+        <f>Memcached!C16</f>
         <v>499317</v>
       </c>
     </row>
@@ -8502,8 +8502,8 @@
         <v>782.67998551661094</v>
       </c>
       <c r="F13">
-        <f>Memcached!D17</f>
-        <v>958.12489460603103</v>
+        <f>Memcached!C17</f>
+        <v>967.90354078356597</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8523,8 +8523,8 @@
         <v>314.33333333333331</v>
       </c>
       <c r="F14">
-        <f>Memcached!D18</f>
-        <v>415</v>
+        <f>Memcached!C18</f>
+        <v>407.66666666666669</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8544,8 +8544,8 @@
         <v>29753.666666666668</v>
       </c>
       <c r="F15">
-        <f>Memcached!D19</f>
-        <v>64031</v>
+        <f>Memcached!C19</f>
+        <v>82249.666666666672</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8565,8 +8565,8 @@
         <v>1121</v>
       </c>
       <c r="F16">
-        <f>Memcached!D20</f>
-        <v>1363</v>
+        <f>Memcached!C20</f>
+        <v>1387.6666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8586,8 +8586,8 @@
         <v>1538.3333333333333</v>
       </c>
       <c r="F17">
-        <f>Memcached!D21</f>
-        <v>1758</v>
+        <f>Memcached!C21</f>
+        <v>1850.6666666666667</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8628,6 +8628,10 @@
         <f>Aerospike!C27</f>
         <v>202264</v>
       </c>
+      <c r="F23" t="e">
+        <f>Memcached!C27</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -8645,6 +8649,10 @@
         <f>Aerospike!C28</f>
         <v>4945.3776482559506</v>
       </c>
+      <c r="F24" t="e">
+        <f>Memcached!C28</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -8665,6 +8673,10 @@
         <f>Aerospike!C29</f>
         <v>949706</v>
       </c>
+      <c r="F25">
+        <f>Memcached!C29</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -8682,6 +8694,10 @@
         <f>Aerospike!C30</f>
         <v>805.96629449109275</v>
       </c>
+      <c r="F26" t="e">
+        <f>Memcached!C30</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -8699,6 +8715,10 @@
         <f>Aerospike!C31</f>
         <v>313.33333333333331</v>
       </c>
+      <c r="F27" t="e">
+        <f>Memcached!C31</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
@@ -8716,6 +8736,10 @@
         <f>Aerospike!C32</f>
         <v>25732.333333333332</v>
       </c>
+      <c r="F28" t="e">
+        <f>Memcached!C32</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -8733,6 +8757,10 @@
         <f>Aerospike!C33</f>
         <v>1188</v>
       </c>
+      <c r="F29" t="e">
+        <f>Memcached!C33</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -8750,6 +8778,10 @@
         <f>Aerospike!C34</f>
         <v>1756</v>
       </c>
+      <c r="F30" t="e">
+        <f>Memcached!C34</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -8770,6 +8802,10 @@
         <f>Aerospike!C35</f>
         <v>50294</v>
       </c>
+      <c r="F31">
+        <f>Memcached!C35</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -8787,6 +8823,10 @@
         <f>Aerospike!C36</f>
         <v>809.97773750073532</v>
       </c>
+      <c r="F32" t="e">
+        <f>Memcached!C36</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
@@ -8804,6 +8844,10 @@
         <f>Aerospike!C37</f>
         <v>341.33333333333331</v>
       </c>
+      <c r="F33" t="e">
+        <f>Memcached!C37</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
@@ -8821,6 +8865,10 @@
         <f>Aerospike!C38</f>
         <v>17132.333333333332</v>
       </c>
+      <c r="F34" t="e">
+        <f>Memcached!C38</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
@@ -8838,6 +8886,10 @@
         <f>Aerospike!C39</f>
         <v>1197.6666666666667</v>
       </c>
+      <c r="F35" t="e">
+        <f>Memcached!C39</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
@@ -8855,6 +8907,10 @@
         <f>Aerospike!C40</f>
         <v>1779.6666666666667</v>
       </c>
+      <c r="F36" t="e">
+        <f>Memcached!C40</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
@@ -8894,6 +8950,10 @@
         <f>Aerospike!C46</f>
         <v>209528</v>
       </c>
+      <c r="F42">
+        <f>Memcached!C46</f>
+        <v>221353.33333333334</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
@@ -8911,6 +8971,10 @@
         <f>Aerospike!C47</f>
         <v>4778.1274961757899</v>
       </c>
+      <c r="F43">
+        <f>Memcached!C47</f>
+        <v>4517.6713328397063</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -8931,6 +8995,10 @@
         <f>Aerospike!C48</f>
         <v>1000000</v>
       </c>
+      <c r="F44">
+        <f>Memcached!C48</f>
+        <v>1000000</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -8948,6 +9016,10 @@
         <f>Aerospike!C49</f>
         <v>835.167418</v>
       </c>
+      <c r="F45">
+        <f>Memcached!C49</f>
+        <v>880.1736556666666</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -8965,6 +9037,10 @@
         <f>Aerospike!C50</f>
         <v>319.33333333333331</v>
       </c>
+      <c r="F46">
+        <f>Memcached!C50</f>
+        <v>376</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
@@ -8982,6 +9058,10 @@
         <f>Aerospike!C51</f>
         <v>41881.666666666664</v>
       </c>
+      <c r="F47">
+        <f>Memcached!C51</f>
+        <v>39071</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
@@ -8999,8 +9079,12 @@
         <f>Aerospike!C52</f>
         <v>1242.3333333333333</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f>Memcached!C52</f>
+        <v>1233.3333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>13</v>
       </c>
@@ -9015,6 +9099,10 @@
       <c r="E49">
         <f>Aerospike!C53</f>
         <v>1861.6666666666667</v>
+      </c>
+      <c r="F49">
+        <f>Memcached!C53</f>
+        <v>1615.3333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -9027,8 +9115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CA6185-A47A-430A-AEC2-7ED0A4C5D4C7}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11071,8 +11159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C80EE16-73D0-4778-A1BC-D419AAA6A283}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11545,18 +11633,36 @@
       <c r="B46" t="s">
         <v>4</v>
       </c>
-      <c r="C46" t="e">
+      <c r="C46">
         <f>AVERAGEA(D46:F46)</f>
-        <v>#DIV/0!</v>
+        <v>221353.33333333334</v>
+      </c>
+      <c r="D46">
+        <v>221716</v>
+      </c>
+      <c r="E46">
+        <v>221312</v>
+      </c>
+      <c r="F46">
+        <v>221032</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>5</v>
       </c>
-      <c r="C47" t="e">
+      <c r="C47">
         <f t="shared" ref="C47:C53" si="2">AVERAGEA(D47:F47)</f>
-        <v>#DIV/0!</v>
+        <v>4517.6713328397063</v>
+      </c>
+      <c r="D47">
+        <v>4510.2744050948004</v>
+      </c>
+      <c r="E47">
+        <v>4518.5078079814903</v>
+      </c>
+      <c r="F47">
+        <v>4524.2317854428302</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -11568,52 +11674,106 @@
       </c>
       <c r="C48">
         <f>D48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+      <c r="D48">
+        <v>1000000</v>
+      </c>
+      <c r="E48">
+        <v>1000000</v>
+      </c>
+      <c r="F48">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="C49" t="e">
+      <c r="C49">
         <f>AVERAGEA(D49:F49)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+        <v>880.1736556666666</v>
+      </c>
+      <c r="D49">
+        <v>881.60456099999999</v>
+      </c>
+      <c r="E49">
+        <v>880.207448</v>
+      </c>
+      <c r="F49">
+        <v>878.70895800000005</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>10</v>
       </c>
-      <c r="C50" t="e">
+      <c r="C50">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="D50">
+        <v>385</v>
+      </c>
+      <c r="E50">
+        <v>354</v>
+      </c>
+      <c r="F50">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>11</v>
       </c>
-      <c r="C51" t="e">
+      <c r="C51">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+        <v>39071</v>
+      </c>
+      <c r="D51">
+        <v>65279</v>
+      </c>
+      <c r="E51">
+        <v>22719</v>
+      </c>
+      <c r="F51">
+        <v>29215</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>12</v>
       </c>
-      <c r="C52" t="e">
+      <c r="C52">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+        <v>1233.3333333333333</v>
+      </c>
+      <c r="D52">
+        <v>1235</v>
+      </c>
+      <c r="E52">
+        <v>1237</v>
+      </c>
+      <c r="F52">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>13</v>
       </c>
-      <c r="C53" t="e">
+      <c r="C53">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1615.3333333333333</v>
+      </c>
+      <c r="D53">
+        <v>1605</v>
+      </c>
+      <c r="E53">
+        <v>1629</v>
+      </c>
+      <c r="F53">
+        <v>1612</v>
       </c>
     </row>
   </sheetData>

--- a/Tests/DB Tests.xlsx
+++ b/Tests/DB Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD_VSB\Git VŠB - StandAlones\DP-KVDBS\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F6760F-A32D-45C6-A47A-0038E83A2740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41143081-BC4A-4758-A404-D5E274083C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Workloads - data" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="20">
   <si>
     <t>DB</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Workload C - Read-only</t>
-  </si>
-  <si>
-    <t>50 272</t>
   </si>
   <si>
     <t>Memcached</t>
@@ -262,7 +259,7 @@
                   <c:v>1264.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8951</c:v>
+                  <c:v>9819</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1121</c:v>
@@ -556,7 +553,7 @@
                   <c:v>1891.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14215</c:v>
+                  <c:v>16332.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1538.3333333333333</c:v>
@@ -847,7 +844,7 @@
                   <c:v>1322.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8487</c:v>
+                  <c:v>8903</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1197.6666666666667</c:v>
@@ -1135,7 +1132,7 @@
                   <c:v>2243.3333333333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13559</c:v>
+                  <c:v>14495</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1779.6666666666667</c:v>
@@ -1423,7 +1420,7 @@
                   <c:v>1213.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3511</c:v>
+                  <c:v>3714.3333333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1242.3333333333333</c:v>
@@ -1711,7 +1708,7 @@
                   <c:v>1856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6939</c:v>
+                  <c:v>7885.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1861.6666666666667</c:v>
@@ -1999,7 +1996,7 @@
                   <c:v>4801.03800056401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1253.75499621366</c:v>
+                  <c:v>1283.9777176479602</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5081.1244477222363</c:v>
@@ -2287,7 +2284,7 @@
                   <c:v>4726.9578685717897</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1823.2305092100401</c:v>
+                  <c:v>1778.1582630532967</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4945.3776482559506</c:v>
@@ -2575,7 +2572,7 @@
                   <c:v>4868.3014319549338</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1851.7901255143299</c:v>
+                  <c:v>1783.3907950035066</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4778.1274961757899</c:v>
@@ -8258,8 +8255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8287,7 +8284,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8300,7 +8297,7 @@
       </c>
       <c r="D4">
         <f>Riak!C8</f>
-        <v>797604</v>
+        <v>803880.33333333337</v>
       </c>
       <c r="E4">
         <f>Aerospike!C8</f>
@@ -8321,7 +8318,7 @@
       </c>
       <c r="D5">
         <f>Riak!C9</f>
-        <v>1253.75499621366</v>
+        <v>1283.9777176479602</v>
       </c>
       <c r="E5">
         <f>Aerospike!C9</f>
@@ -8366,7 +8363,7 @@
       </c>
       <c r="D7">
         <f>Riak!C11</f>
-        <v>2054.67928302776</v>
+        <v>2175.8569730388999</v>
       </c>
       <c r="E7">
         <f>Aerospike!C11</f>
@@ -8387,7 +8384,7 @@
       </c>
       <c r="D8">
         <f>Riak!C12</f>
-        <v>858</v>
+        <v>861.33333333333337</v>
       </c>
       <c r="E8">
         <f>Aerospike!C12</f>
@@ -8408,7 +8405,7 @@
       </c>
       <c r="D9">
         <f>Riak!C13</f>
-        <v>169855</v>
+        <v>158271</v>
       </c>
       <c r="E9">
         <f>Aerospike!C13</f>
@@ -8429,7 +8426,7 @@
       </c>
       <c r="D10">
         <f>Riak!C14</f>
-        <v>3311</v>
+        <v>3695</v>
       </c>
       <c r="E10">
         <f>Aerospike!C14</f>
@@ -8450,7 +8447,7 @@
       </c>
       <c r="D11">
         <f>Riak!C15</f>
-        <v>6375</v>
+        <v>7399</v>
       </c>
       <c r="E11">
         <f>Aerospike!C15</f>
@@ -8495,7 +8492,7 @@
       </c>
       <c r="D13">
         <f>Riak!C17</f>
-        <v>5649.6048753783698</v>
+        <v>5941.3298998398968</v>
       </c>
       <c r="E13">
         <f>Aerospike!C17</f>
@@ -8516,7 +8513,7 @@
       </c>
       <c r="D14">
         <f>Riak!C18</f>
-        <v>2528</v>
+        <v>2526.6666666666665</v>
       </c>
       <c r="E14">
         <f>Aerospike!C18</f>
@@ -8537,7 +8534,7 @@
       </c>
       <c r="D15">
         <f>Riak!C19</f>
-        <v>176639</v>
+        <v>167764.33333333334</v>
       </c>
       <c r="E15">
         <f>Aerospike!C19</f>
@@ -8558,7 +8555,7 @@
       </c>
       <c r="D16">
         <f>Riak!C20</f>
-        <v>8951</v>
+        <v>9819</v>
       </c>
       <c r="E16">
         <f>Aerospike!C20</f>
@@ -8579,7 +8576,7 @@
       </c>
       <c r="D17">
         <f>Riak!C21</f>
-        <v>14215</v>
+        <v>16332.333333333334</v>
       </c>
       <c r="E17">
         <f>Aerospike!C21</f>
@@ -8609,7 +8606,7 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8622,15 +8619,15 @@
       </c>
       <c r="D23">
         <f>Riak!C27</f>
-        <v>548477</v>
+        <v>562799.66666666663</v>
       </c>
       <c r="E23">
         <f>Aerospike!C27</f>
         <v>202264</v>
       </c>
-      <c r="F23" t="e">
+      <c r="F23">
         <f>Memcached!C27</f>
-        <v>#DIV/0!</v>
+        <v>263195.66666666669</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8643,15 +8640,15 @@
       </c>
       <c r="D24">
         <f>Riak!C28</f>
-        <v>1823.2305092100401</v>
+        <v>1778.1582630532967</v>
       </c>
       <c r="E24">
         <f>Aerospike!C28</f>
         <v>4945.3776482559506</v>
       </c>
-      <c r="F24" t="e">
+      <c r="F24">
         <f>Memcached!C28</f>
-        <v>#DIV/0!</v>
+        <v>3863.5883942419064</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -8675,7 +8672,7 @@
       </c>
       <c r="F25">
         <f>Memcached!C29</f>
-        <v>0</v>
+        <v>950435</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8688,15 +8685,15 @@
       </c>
       <c r="D26">
         <f>Riak!C30</f>
-        <v>2013.5313047525101</v>
+        <v>2072.9082253935767</v>
       </c>
       <c r="E26">
         <f>Aerospike!C30</f>
         <v>805.96629449109275</v>
       </c>
-      <c r="F26" t="e">
+      <c r="F26">
         <f>Memcached!C30</f>
-        <v>#DIV/0!</v>
+        <v>1046.1802303928137</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -8709,15 +8706,15 @@
       </c>
       <c r="D27">
         <f>Riak!C31</f>
-        <v>852</v>
+        <v>825.33333333333337</v>
       </c>
       <c r="E27">
         <f>Aerospike!C31</f>
         <v>313.33333333333331</v>
       </c>
-      <c r="F27" t="e">
+      <c r="F27">
         <f>Memcached!C31</f>
-        <v>#DIV/0!</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8730,15 +8727,15 @@
       </c>
       <c r="D28">
         <f>Riak!C32</f>
-        <v>82303</v>
+        <v>110356.33333333333</v>
       </c>
       <c r="E28">
         <f>Aerospike!C32</f>
         <v>25732.333333333332</v>
       </c>
-      <c r="F28" t="e">
+      <c r="F28">
         <f>Memcached!C32</f>
-        <v>#DIV/0!</v>
+        <v>112020.33333333333</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -8751,15 +8748,15 @@
       </c>
       <c r="D29">
         <f>Riak!C33</f>
-        <v>3051</v>
+        <v>3232.3333333333335</v>
       </c>
       <c r="E29">
         <f>Aerospike!C33</f>
         <v>1188</v>
       </c>
-      <c r="F29" t="e">
+      <c r="F29">
         <f>Memcached!C33</f>
-        <v>#DIV/0!</v>
+        <v>1735.3333333333333</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -8772,15 +8769,15 @@
       </c>
       <c r="D30">
         <f>Riak!C34</f>
-        <v>6035</v>
+        <v>6805.666666666667</v>
       </c>
       <c r="E30">
         <f>Aerospike!C34</f>
         <v>1756</v>
       </c>
-      <c r="F30" t="e">
+      <c r="F30">
         <f>Memcached!C34</f>
-        <v>#DIV/0!</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8794,9 +8791,9 @@
         <f>Redis!C35</f>
         <v>50164</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D31">
         <f>Riak!C35</f>
-        <v>50 272</v>
+        <v>50272</v>
       </c>
       <c r="E31">
         <f>Aerospike!C35</f>
@@ -8804,7 +8801,7 @@
       </c>
       <c r="F31">
         <f>Memcached!C35</f>
-        <v>0</v>
+        <v>49565</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -8817,15 +8814,15 @@
       </c>
       <c r="D32">
         <f>Riak!C36</f>
-        <v>5714.9600163461901</v>
+        <v>5827.5136784126071</v>
       </c>
       <c r="E32">
         <f>Aerospike!C36</f>
         <v>809.97773750073532</v>
       </c>
-      <c r="F32" t="e">
+      <c r="F32">
         <f>Memcached!C36</f>
-        <v>#DIV/0!</v>
+        <v>1064.235560477892</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -8838,15 +8835,15 @@
       </c>
       <c r="D33">
         <f>Riak!C37</f>
-        <v>2808</v>
+        <v>2765.3333333333335</v>
       </c>
       <c r="E33">
         <f>Aerospike!C37</f>
         <v>341.33333333333331</v>
       </c>
-      <c r="F33" t="e">
+      <c r="F33">
         <f>Memcached!C37</f>
-        <v>#DIV/0!</v>
+        <v>406.66666666666669</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -8859,15 +8856,15 @@
       </c>
       <c r="D34">
         <f>Riak!C38</f>
-        <v>122303</v>
+        <v>127231</v>
       </c>
       <c r="E34">
         <f>Aerospike!C38</f>
         <v>17132.333333333332</v>
       </c>
-      <c r="F34" t="e">
+      <c r="F34">
         <f>Memcached!C38</f>
-        <v>#DIV/0!</v>
+        <v>91625.666666666672</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8880,15 +8877,15 @@
       </c>
       <c r="D35">
         <f>Riak!C39</f>
-        <v>8487</v>
+        <v>8903</v>
       </c>
       <c r="E35">
         <f>Aerospike!C39</f>
         <v>1197.6666666666667</v>
       </c>
-      <c r="F35" t="e">
+      <c r="F35">
         <f>Memcached!C39</f>
-        <v>#DIV/0!</v>
+        <v>1752.6666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -8901,15 +8898,15 @@
       </c>
       <c r="D36">
         <f>Riak!C40</f>
-        <v>13559</v>
+        <v>14495</v>
       </c>
       <c r="E36">
         <f>Aerospike!C40</f>
         <v>1779.6666666666667</v>
       </c>
-      <c r="F36" t="e">
+      <c r="F36">
         <f>Memcached!C40</f>
-        <v>#DIV/0!</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -8931,7 +8928,7 @@
         <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -8944,7 +8941,7 @@
       </c>
       <c r="D42">
         <f>Riak!C46</f>
-        <v>540018</v>
+        <v>562029.33333333337</v>
       </c>
       <c r="E42">
         <f>Aerospike!C46</f>
@@ -8965,7 +8962,7 @@
       </c>
       <c r="D43">
         <f>Riak!C47</f>
-        <v>1851.7901255143299</v>
+        <v>1783.3907950035066</v>
       </c>
       <c r="E43">
         <f>Aerospike!C47</f>
@@ -9010,7 +9007,7 @@
       </c>
       <c r="D45">
         <f>Riak!C49</f>
-        <v>2153.5019000000002</v>
+        <v>2241.0063320000004</v>
       </c>
       <c r="E45">
         <f>Aerospike!C49</f>
@@ -9031,7 +9028,7 @@
       </c>
       <c r="D46">
         <f>Riak!C50</f>
-        <v>811</v>
+        <v>804.66666666666663</v>
       </c>
       <c r="E46">
         <f>Aerospike!C50</f>
@@ -9052,7 +9049,7 @@
       </c>
       <c r="D47">
         <f>Riak!C51</f>
-        <v>64063</v>
+        <v>83903</v>
       </c>
       <c r="E47">
         <f>Aerospike!C51</f>
@@ -9073,7 +9070,7 @@
       </c>
       <c r="D48">
         <f>Riak!C52</f>
-        <v>3511</v>
+        <v>3714.3333333333335</v>
       </c>
       <c r="E48">
         <f>Aerospike!C52</f>
@@ -9094,7 +9091,7 @@
       </c>
       <c r="D49">
         <f>Riak!C53</f>
-        <v>6939</v>
+        <v>7885.666666666667</v>
       </c>
       <c r="E49">
         <f>Aerospike!C53</f>
@@ -9115,8 +9112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CA6185-A47A-430A-AEC2-7ED0A4C5D4C7}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9869,8 +9866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8B41AC-D64A-4E90-ABED-E837F425F881}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9912,10 +9909,16 @@
       </c>
       <c r="C8">
         <f>AVERAGEA(D8:F8)</f>
-        <v>797604</v>
+        <v>803880.33333333337</v>
       </c>
       <c r="D8">
         <v>797604</v>
+      </c>
+      <c r="E8">
+        <v>980397</v>
+      </c>
+      <c r="F8">
+        <v>633640</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9924,10 +9927,16 @@
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C21" si="0">AVERAGEA(D9:F9)</f>
-        <v>1253.75499621366</v>
+        <v>1283.9777176479602</v>
       </c>
       <c r="D9">
         <v>1253.75499621366</v>
+      </c>
+      <c r="E9">
+        <v>1019.9949612248899</v>
+      </c>
+      <c r="F9">
+        <v>1578.1831955053301</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9944,6 +9953,12 @@
       <c r="D10">
         <v>500382</v>
       </c>
+      <c r="E10">
+        <v>499236</v>
+      </c>
+      <c r="F10">
+        <v>499886</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -9951,10 +9966,16 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>2054.67928302776</v>
+        <v>2175.8569730388999</v>
       </c>
       <c r="D11">
         <v>2054.67928302776</v>
+      </c>
+      <c r="E11">
+        <v>2529.8990737847398</v>
+      </c>
+      <c r="F11">
+        <v>1942.9925623042</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9963,10 +9984,16 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>858</v>
+        <v>861.33333333333337</v>
       </c>
       <c r="D12">
         <v>858</v>
+      </c>
+      <c r="E12">
+        <v>884</v>
+      </c>
+      <c r="F12">
+        <v>842</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9975,10 +10002,16 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>169855</v>
+        <v>158271</v>
       </c>
       <c r="D13">
         <v>169855</v>
+      </c>
+      <c r="E13">
+        <v>191103</v>
+      </c>
+      <c r="F13">
+        <v>113855</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9987,10 +10020,16 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>3311</v>
+        <v>3695</v>
       </c>
       <c r="D14">
         <v>3311</v>
+      </c>
+      <c r="E14">
+        <v>4803</v>
+      </c>
+      <c r="F14">
+        <v>2971</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9999,10 +10038,16 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>6375</v>
+        <v>7399</v>
       </c>
       <c r="D15">
         <v>6375</v>
+      </c>
+      <c r="E15">
+        <v>10151</v>
+      </c>
+      <c r="F15">
+        <v>5671</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -10019,6 +10064,12 @@
       <c r="D16">
         <v>499618</v>
       </c>
+      <c r="E16">
+        <v>500764</v>
+      </c>
+      <c r="F16">
+        <v>500114</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -10026,10 +10077,16 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>5649.6048753783698</v>
+        <v>5941.3298998398968</v>
       </c>
       <c r="D17">
         <v>5649.6048753783698</v>
+      </c>
+      <c r="E17">
+        <v>6813.1167181750297</v>
+      </c>
+      <c r="F17">
+        <v>5361.26810596629</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -10038,10 +10095,16 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>2528</v>
+        <v>2526.6666666666665</v>
       </c>
       <c r="D18">
         <v>2528</v>
+      </c>
+      <c r="E18">
+        <v>2626</v>
+      </c>
+      <c r="F18">
+        <v>2426</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10050,10 +10113,16 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>176639</v>
+        <v>167764.33333333334</v>
       </c>
       <c r="D19">
         <v>176639</v>
+      </c>
+      <c r="E19">
+        <v>211199</v>
+      </c>
+      <c r="F19">
+        <v>115455</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -10062,10 +10131,16 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>8951</v>
+        <v>9819</v>
       </c>
       <c r="D20">
         <v>8951</v>
+      </c>
+      <c r="E20">
+        <v>12375</v>
+      </c>
+      <c r="F20">
+        <v>8131</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -10074,10 +10149,16 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>14215</v>
+        <v>16332.333333333334</v>
       </c>
       <c r="D21">
         <v>14215</v>
+      </c>
+      <c r="E21">
+        <v>21551</v>
+      </c>
+      <c r="F21">
+        <v>13231</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -10108,10 +10189,16 @@
       </c>
       <c r="C27">
         <f>AVERAGEA(D27:F27)</f>
-        <v>548477</v>
+        <v>562799.66666666663</v>
       </c>
       <c r="D27">
         <v>548477</v>
+      </c>
+      <c r="E27">
+        <v>555590</v>
+      </c>
+      <c r="F27">
+        <v>584332</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -10120,10 +10207,16 @@
       </c>
       <c r="C28">
         <f t="shared" ref="C28:C40" si="1">AVERAGEA(D28:F28)</f>
-        <v>1823.2305092100401</v>
+        <v>1778.1582630532967</v>
       </c>
       <c r="D28">
         <v>1823.2305092100401</v>
+      </c>
+      <c r="E28">
+        <v>1799.88840691877</v>
+      </c>
+      <c r="F28">
+        <v>1711.3558730310799</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -10140,6 +10233,12 @@
       <c r="D29">
         <v>949728</v>
       </c>
+      <c r="E29">
+        <v>949999</v>
+      </c>
+      <c r="F29">
+        <v>949933</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -10147,10 +10246,16 @@
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>2013.5313047525101</v>
+        <v>2072.9082253935767</v>
       </c>
       <c r="D30">
         <v>2013.5313047525101</v>
+      </c>
+      <c r="E30">
+        <v>2047.38028882135</v>
+      </c>
+      <c r="F30">
+        <v>2157.81308260687</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -10159,10 +10264,16 @@
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>852</v>
+        <v>825.33333333333337</v>
       </c>
       <c r="D31">
         <v>852</v>
+      </c>
+      <c r="E31">
+        <v>797</v>
+      </c>
+      <c r="F31">
+        <v>827</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -10171,10 +10282,16 @@
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>82303</v>
+        <v>110356.33333333333</v>
       </c>
       <c r="D32">
         <v>82303</v>
+      </c>
+      <c r="E32">
+        <v>124927</v>
+      </c>
+      <c r="F32">
+        <v>123839</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -10183,10 +10300,16 @@
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>3051</v>
+        <v>3232.3333333333335</v>
       </c>
       <c r="D33">
         <v>3051</v>
+      </c>
+      <c r="E33">
+        <v>3101</v>
+      </c>
+      <c r="F33">
+        <v>3545</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -10195,10 +10318,16 @@
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>6035</v>
+        <v>6805.666666666667</v>
       </c>
       <c r="D34">
         <v>6035</v>
+      </c>
+      <c r="E34">
+        <v>6755</v>
+      </c>
+      <c r="F34">
+        <v>7627</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -10208,12 +10337,18 @@
       <c r="B35" t="s">
         <v>16</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C35">
         <f>D35</f>
-        <v>50 272</v>
-      </c>
-      <c r="D35" t="s">
-        <v>19</v>
+        <v>50272</v>
+      </c>
+      <c r="D35">
+        <v>50272</v>
+      </c>
+      <c r="E35">
+        <v>50001</v>
+      </c>
+      <c r="F35">
+        <v>50067</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -10222,10 +10357,16 @@
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>5714.9600163461901</v>
+        <v>5827.5136784126071</v>
       </c>
       <c r="D36">
         <v>5714.9600163461901</v>
+      </c>
+      <c r="E36">
+        <v>5720.7815662120502</v>
+      </c>
+      <c r="F36">
+        <v>6046.7994526795801</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -10234,10 +10375,16 @@
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>2808</v>
+        <v>2765.3333333333335</v>
       </c>
       <c r="D37">
         <v>2808</v>
+      </c>
+      <c r="E37">
+        <v>2678</v>
+      </c>
+      <c r="F37">
+        <v>2810</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -10246,10 +10393,16 @@
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>122303</v>
+        <v>127231</v>
       </c>
       <c r="D38">
         <v>122303</v>
+      </c>
+      <c r="E38">
+        <v>128383</v>
+      </c>
+      <c r="F38">
+        <v>131007</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -10258,10 +10411,16 @@
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>8487</v>
+        <v>8903</v>
       </c>
       <c r="D39">
         <v>8487</v>
+      </c>
+      <c r="E39">
+        <v>8455</v>
+      </c>
+      <c r="F39">
+        <v>9767</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -10270,10 +10429,16 @@
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>13559</v>
+        <v>14495</v>
       </c>
       <c r="D40">
         <v>13559</v>
+      </c>
+      <c r="E40">
+        <v>13975</v>
+      </c>
+      <c r="F40">
+        <v>15951</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -10304,10 +10469,16 @@
       </c>
       <c r="C46">
         <f>AVERAGEA(D46:F46)</f>
-        <v>540018</v>
+        <v>562029.33333333337</v>
       </c>
       <c r="D46">
         <v>540018</v>
+      </c>
+      <c r="E46">
+        <v>600768</v>
+      </c>
+      <c r="F46">
+        <v>545302</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -10316,10 +10487,16 @@
       </c>
       <c r="C47">
         <f t="shared" ref="C47:C53" si="2">AVERAGEA(D47:F47)</f>
-        <v>1851.7901255143299</v>
+        <v>1783.3907950035066</v>
       </c>
       <c r="D47">
         <v>1851.7901255143299</v>
+      </c>
+      <c r="E47">
+        <v>1664.5360605092101</v>
+      </c>
+      <c r="F47">
+        <v>1833.84619898698</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -10336,65 +10513,101 @@
       <c r="D48">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>1000000</v>
+      </c>
+      <c r="F48">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>8</v>
       </c>
       <c r="C49">
         <f t="shared" si="2"/>
-        <v>2153.5019000000002</v>
+        <v>2241.0063320000004</v>
       </c>
       <c r="D49">
         <v>2153.5019000000002</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>2395.5996220000002</v>
+      </c>
+      <c r="F49">
+        <v>2173.9174739999999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>10</v>
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
-        <v>811</v>
+        <v>804.66666666666663</v>
       </c>
       <c r="D50">
         <v>811</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>799</v>
+      </c>
+      <c r="F50">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>11</v>
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
-        <v>64063</v>
+        <v>83903</v>
       </c>
       <c r="D51">
         <v>64063</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>110655</v>
+      </c>
+      <c r="F51">
+        <v>76991</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>12</v>
       </c>
       <c r="C52">
         <f t="shared" si="2"/>
-        <v>3511</v>
+        <v>3714.3333333333335</v>
       </c>
       <c r="D52">
         <v>3511</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>4151</v>
+      </c>
+      <c r="F52">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>13</v>
       </c>
       <c r="C53">
         <f t="shared" si="2"/>
-        <v>6939</v>
+        <v>7885.666666666667</v>
       </c>
       <c r="D53">
         <v>6939</v>
+      </c>
+      <c r="E53">
+        <v>8607</v>
+      </c>
+      <c r="F53">
+        <v>8111</v>
       </c>
     </row>
   </sheetData>
@@ -10406,8 +10619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDCD321-116C-4788-8C82-6E80CAB0FE5C}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11160,7 +11373,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11170,7 +11383,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -11479,18 +11692,36 @@
       <c r="B27" t="s">
         <v>4</v>
       </c>
-      <c r="C27" t="e">
+      <c r="C27">
         <f>AVERAGEA(D27:F27)</f>
-        <v>#DIV/0!</v>
+        <v>263195.66666666669</v>
+      </c>
+      <c r="D27">
+        <v>310762</v>
+      </c>
+      <c r="E27">
+        <v>250843</v>
+      </c>
+      <c r="F27">
+        <v>227982</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>5</v>
       </c>
-      <c r="C28" t="e">
+      <c r="C28">
         <f t="shared" ref="C28:C40" si="1">AVERAGEA(D28:F28)</f>
-        <v>#DIV/0!</v>
+        <v>3863.5883942419064</v>
+      </c>
+      <c r="D28">
+        <v>3217.8966540310498</v>
+      </c>
+      <c r="E28">
+        <v>3986.5573286876602</v>
+      </c>
+      <c r="F28">
+        <v>4386.3112000070096</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -11502,52 +11733,106 @@
       </c>
       <c r="C29">
         <f>D29</f>
-        <v>0</v>
+        <v>950435</v>
+      </c>
+      <c r="D29">
+        <v>950435</v>
+      </c>
+      <c r="E29">
+        <v>949527</v>
+      </c>
+      <c r="F29">
+        <v>949927</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>8</v>
       </c>
-      <c r="C30" t="e">
+      <c r="C30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1046.1802303928137</v>
+      </c>
+      <c r="D30">
+        <v>1235.2323725452</v>
+      </c>
+      <c r="E30">
+        <v>997.01798579713898</v>
+      </c>
+      <c r="F30">
+        <v>906.29033283610204</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C31" t="e">
+      <c r="C31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>389</v>
+      </c>
+      <c r="D31">
+        <v>395</v>
+      </c>
+      <c r="E31">
+        <v>389</v>
+      </c>
+      <c r="F31">
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>11</v>
       </c>
-      <c r="C32" t="e">
+      <c r="C32">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>112020.33333333333</v>
+      </c>
+      <c r="D32">
+        <v>179839</v>
+      </c>
+      <c r="E32">
+        <v>86655</v>
+      </c>
+      <c r="F32">
+        <v>69567</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>12</v>
       </c>
-      <c r="C33" t="e">
+      <c r="C33">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1735.3333333333333</v>
+      </c>
+      <c r="D33">
+        <v>2363</v>
+      </c>
+      <c r="E33">
+        <v>1562</v>
+      </c>
+      <c r="F33">
+        <v>1281</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>13</v>
       </c>
-      <c r="C34" t="e">
+      <c r="C34">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2813</v>
+      </c>
+      <c r="D34">
+        <v>4235</v>
+      </c>
+      <c r="E34">
+        <v>2439</v>
+      </c>
+      <c r="F34">
+        <v>1765</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -11559,52 +11844,106 @@
       </c>
       <c r="C35">
         <f>D35</f>
-        <v>0</v>
+        <v>49565</v>
+      </c>
+      <c r="D35">
+        <v>49565</v>
+      </c>
+      <c r="E35">
+        <v>50473</v>
+      </c>
+      <c r="F35">
+        <v>50073</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>8</v>
       </c>
-      <c r="C36" t="e">
+      <c r="C36">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1064.235560477892</v>
+      </c>
+      <c r="D36">
+        <v>1256.08639160698</v>
+      </c>
+      <c r="E36">
+        <v>1020.0730687694401</v>
+      </c>
+      <c r="F36">
+        <v>916.54722105725602</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>10</v>
       </c>
-      <c r="C37" t="e">
+      <c r="C37">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>406.66666666666669</v>
+      </c>
+      <c r="D37">
+        <v>444</v>
+      </c>
+      <c r="E37">
+        <v>393</v>
+      </c>
+      <c r="F37">
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>11</v>
       </c>
-      <c r="C38" t="e">
+      <c r="C38">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>91625.666666666672</v>
+      </c>
+      <c r="D38">
+        <v>128063</v>
+      </c>
+      <c r="E38">
+        <v>77247</v>
+      </c>
+      <c r="F38">
+        <v>69567</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>12</v>
       </c>
-      <c r="C39" t="e">
+      <c r="C39">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1752.6666666666667</v>
+      </c>
+      <c r="D39">
+        <v>2383</v>
+      </c>
+      <c r="E39">
+        <v>1594</v>
+      </c>
+      <c r="F39">
+        <v>1281</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>13</v>
       </c>
-      <c r="C40" t="e">
+      <c r="C40">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2851</v>
+      </c>
+      <c r="D40">
+        <v>4271</v>
+      </c>
+      <c r="E40">
+        <v>2517</v>
+      </c>
+      <c r="F40">
+        <v>1765</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">

--- a/Tests/DB Tests.xlsx
+++ b/Tests/DB Tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD_VSB\Git VŠB - StandAlones\DP-KVDBS\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41143081-BC4A-4758-A404-D5E274083C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA13244-E514-493E-AEED-19D5EE644B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Workloads - data" sheetId="1" r:id="rId1"/>
@@ -819,9 +819,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Workloads - data'!$C$3:$E$3</c:f>
+              <c:f>('Workloads - data'!$C$3:$E$3,'Workloads - data'!$F$3)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Redis</c:v>
                 </c:pt>
@@ -831,15 +831,18 @@
                 <c:pt idx="2">
                   <c:v>Aerospike</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>Memcached</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - data'!$C$35:$E$35</c:f>
+              <c:f>'Workloads - data'!$C$35:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1322.3333333333333</c:v>
                 </c:pt>
@@ -848,6 +851,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1197.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1752.6666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1107,9 +1113,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Workloads - data'!$C$3:$E$3</c:f>
+              <c:f>('Workloads - data'!$C$3:$E$3,'Workloads - data'!$F$3)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Redis</c:v>
                 </c:pt>
@@ -1119,15 +1125,18 @@
                 <c:pt idx="2">
                   <c:v>Aerospike</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>Memcached</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - data'!$C$36:$E$36</c:f>
+              <c:f>'Workloads - data'!$C$36:$F$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2243.3333333333335</c:v>
                 </c:pt>
@@ -1136,6 +1145,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1779.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1395,9 +1407,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Workloads - data'!$C$3:$E$3</c:f>
+              <c:f>('Workloads - data'!$C$3:$E$3,'Workloads - data'!$F$3)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Redis</c:v>
                 </c:pt>
@@ -1407,15 +1419,18 @@
                 <c:pt idx="2">
                   <c:v>Aerospike</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>Memcached</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - data'!$C$48:$E$48</c:f>
+              <c:f>'Workloads - data'!$C$48:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1213.3333333333333</c:v>
                 </c:pt>
@@ -1424,6 +1439,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1242.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1233.3333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1683,9 +1701,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Workloads - data'!$C$3:$E$3</c:f>
+              <c:f>'Workloads - data'!$C$3:$F$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Redis</c:v>
                 </c:pt>
@@ -1695,15 +1713,18 @@
                 <c:pt idx="2">
                   <c:v>Aerospike</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>Memcached</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - data'!$C$49:$E$49</c:f>
+              <c:f>'Workloads - data'!$C$49:$F$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1856</c:v>
                 </c:pt>
@@ -1712,6 +1733,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1861.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1615.3333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1971,9 +1995,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Workloads - data'!$C$3:$E$3</c:f>
+              <c:f>'Workloads - data'!$C$3:$F$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Redis</c:v>
                 </c:pt>
@@ -1983,15 +2007,18 @@
                 <c:pt idx="2">
                   <c:v>Aerospike</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>Memcached</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - data'!$C$5:$E$5</c:f>
+              <c:f>'Workloads - data'!$C$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4801.03800056401</c:v>
                 </c:pt>
@@ -2000,6 +2027,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5081.1244477222363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4108.7042113635098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2259,9 +2289,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Workloads - data'!$C$3:$E$3</c:f>
+              <c:f>('Workloads - data'!$C$3:$E$3,'Workloads - data'!$F$3)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Redis</c:v>
                 </c:pt>
@@ -2271,15 +2301,18 @@
                 <c:pt idx="2">
                   <c:v>Aerospike</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>Memcached</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - data'!$C$24:$E$24</c:f>
+              <c:f>'Workloads - data'!$C$24:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4726.9578685717897</c:v>
                 </c:pt>
@@ -2288,6 +2321,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4945.3776482559506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3863.5883942419064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2547,9 +2583,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Workloads - data'!$C$3:$E$3</c:f>
+              <c:f>'Workloads - data'!$C$3:$F$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Redis</c:v>
                 </c:pt>
@@ -2559,15 +2595,18 @@
                 <c:pt idx="2">
                   <c:v>Aerospike</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>Memcached</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - data'!$C$43:$E$43</c:f>
+              <c:f>'Workloads - data'!$C$43:$F$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4868.3014319549338</c:v>
                 </c:pt>
@@ -2576,6 +2615,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4778.1274961757899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4517.6713328397063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8255,8 +8297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11372,7 +11414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C80EE16-73D0-4778-A1BC-D419AAA6A283}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>

--- a/Tests/DB Tests.xlsx
+++ b/Tests/DB Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD_VSB\Git VŠB - StandAlones\DP-KVDBS\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA13244-E514-493E-AEED-19D5EE644B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0D5DDB-E287-4F31-9027-CB0EBFE13BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Workloads - data" sheetId="1" r:id="rId1"/>
@@ -8298,7 +8298,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tests/DB Tests.xlsx
+++ b/Tests/DB Tests.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD_VSB\Git VŠB - StandAlones\DP-KVDBS\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0D5DDB-E287-4F31-9027-CB0EBFE13BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BEDA29-A853-4DA2-BD0D-658911E140AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Workloads - data" sheetId="1" r:id="rId1"/>
-    <sheet name="Redis" sheetId="2" r:id="rId2"/>
-    <sheet name="Riak" sheetId="3" r:id="rId3"/>
-    <sheet name="Aerospike" sheetId="4" r:id="rId4"/>
-    <sheet name="Memcached" sheetId="5" r:id="rId5"/>
+    <sheet name="Workloads - Read,Write" sheetId="1" r:id="rId1"/>
+    <sheet name="Workloads - Insert" sheetId="6" r:id="rId2"/>
+    <sheet name="Redis" sheetId="2" r:id="rId3"/>
+    <sheet name="Riak" sheetId="3" r:id="rId4"/>
+    <sheet name="Aerospike" sheetId="4" r:id="rId5"/>
+    <sheet name="Memcached" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="24">
   <si>
     <t>DB</t>
   </si>
@@ -100,6 +101,18 @@
   </si>
   <si>
     <t>Memcached</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>R+W</t>
+  </si>
+  <si>
+    <t>1211.4163880408973</t>
+  </si>
+  <si>
+    <t>Average Insert - Workloads A, B, C</t>
   </si>
 </sst>
 </file>
@@ -210,7 +223,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Workloads - data'!$B$16</c:f>
+              <c:f>'Workloads - Read,Write'!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -231,7 +244,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Workloads - data'!$C$3:$F$3</c:f>
+              <c:f>'Workloads - Read,Write'!$C$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -251,7 +264,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - data'!$C$16:$F$16</c:f>
+              <c:f>'Workloads - Read,Write'!$C$16:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -504,7 +517,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Workloads - data'!$B$17</c:f>
+              <c:f>'Workloads - Read,Write'!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -525,7 +538,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Workloads - data'!$C$3:$F$3</c:f>
+              <c:f>'Workloads - Read,Write'!$C$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -545,7 +558,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - data'!$C$17:$F$17</c:f>
+              <c:f>'Workloads - Read,Write'!$C$17:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -798,7 +811,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Workloads - data'!$B$16</c:f>
+              <c:f>'Workloads - Read,Write'!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -819,7 +832,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>('Workloads - data'!$C$3:$E$3,'Workloads - data'!$F$3)</c:f>
+              <c:f>('Workloads - Read,Write'!$C$3:$E$3,'Workloads - Read,Write'!$F$3)</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -839,7 +852,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - data'!$C$35:$F$35</c:f>
+              <c:f>'Workloads - Read,Write'!$C$41:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1092,7 +1105,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Workloads - data'!$B$17</c:f>
+              <c:f>'Workloads - Read,Write'!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1113,7 +1126,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>('Workloads - data'!$C$3:$E$3,'Workloads - data'!$F$3)</c:f>
+              <c:f>('Workloads - Read,Write'!$C$3:$E$3,'Workloads - Read,Write'!$F$3)</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1133,7 +1146,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - data'!$C$36:$F$36</c:f>
+              <c:f>'Workloads - Read,Write'!$C$42:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1386,7 +1399,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Workloads - data'!$B$16</c:f>
+              <c:f>'Workloads - Read,Write'!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1407,7 +1420,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>('Workloads - data'!$C$3:$E$3,'Workloads - data'!$F$3)</c:f>
+              <c:f>('Workloads - Read,Write'!$C$3:$E$3,'Workloads - Read,Write'!$F$3)</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1427,7 +1440,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - data'!$C$48:$F$48</c:f>
+              <c:f>'Workloads - Read,Write'!$C$60:$F$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1680,7 +1693,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Workloads - data'!$B$17</c:f>
+              <c:f>'Workloads - Read,Write'!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1701,7 +1714,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Workloads - data'!$C$3:$F$3</c:f>
+              <c:f>'Workloads - Read,Write'!$C$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1721,7 +1734,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - data'!$C$49:$F$49</c:f>
+              <c:f>'Workloads - Read,Write'!$C$61:$F$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1974,7 +1987,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Workloads - data'!$B$5</c:f>
+              <c:f>'Workloads - Read,Write'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1995,7 +2008,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Workloads - data'!$C$3:$F$3</c:f>
+              <c:f>'Workloads - Read,Write'!$C$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2015,7 +2028,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - data'!$C$5:$F$5</c:f>
+              <c:f>'Workloads - Read,Write'!$C$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2268,7 +2281,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Workloads - data'!$B$5</c:f>
+              <c:f>'Workloads - Read,Write'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2289,7 +2302,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>('Workloads - data'!$C$3:$E$3,'Workloads - data'!$F$3)</c:f>
+              <c:f>('Workloads - Read,Write'!$C$3:$E$3,'Workloads - Read,Write'!$F$3)</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2309,7 +2322,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - data'!$C$24:$F$24</c:f>
+              <c:f>'Workloads - Read,Write'!$C$30:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2562,7 +2575,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Workloads - data'!$B$5</c:f>
+              <c:f>'Workloads - Read,Write'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2583,7 +2596,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Workloads - data'!$C$3:$F$3</c:f>
+              <c:f>'Workloads - Read,Write'!$C$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2603,7 +2616,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - data'!$C$43:$F$43</c:f>
+              <c:f>'Workloads - Read,Write'!$C$55:$F$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7692,15 +7705,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7735,7 +7748,7 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7767,13 +7780,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7805,13 +7818,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7843,13 +7856,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7881,13 +7894,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7925,7 +7938,7 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7957,13 +7970,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7995,13 +8008,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8295,10 +8308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8629,221 +8642,217 @@
         <v>1850.6666666666667</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1500000</v>
+      </c>
+      <c r="D18">
+        <v>1000000</v>
+      </c>
+      <c r="E18">
+        <v>1000000</v>
+      </c>
+      <c r="F18">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <f>AVERAGEA(C7,C13)</f>
+        <v>830.44716603206803</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:F19" si="0">AVERAGEA(D7,D13)</f>
+        <v>4058.5934364393984</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>784.27154740916467</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>967.90285344364963</v>
+      </c>
+    </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGEA(C8,C14)</f>
+        <v>315.16666666666663</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:F20" si="1">AVERAGEA(D8,D14)</f>
+        <v>1694</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>317</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>401.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <f>AVERAGEA(C9,C15)</f>
+        <v>47924.333333333328</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:F21" si="2">AVERAGEA(D9,D15)</f>
+        <v>163017.66666666669</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>28532.333333333336</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>82713.666666666672</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <f>AVERAGEA(C10,C16)</f>
+        <v>1273</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:F22" si="3">AVERAGEA(D10,D16)</f>
+        <v>6757</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>1121.8333333333335</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>1386.3333333333335</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <f>AVERAGEA(C11,C17)</f>
+        <v>1904.5</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:F23" si="4">AVERAGEA(D11,D17)</f>
+        <v>11865.666666666668</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="4"/>
+        <v>1539.3333333333333</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>1848.3333333333335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>4</v>
       </c>
-      <c r="C23">
+      <c r="C29">
         <f>Redis!C27</f>
         <v>212026.33333333334</v>
       </c>
-      <c r="D23">
+      <c r="D29">
         <f>Riak!C27</f>
         <v>562799.66666666663</v>
       </c>
-      <c r="E23">
+      <c r="E29">
         <f>Aerospike!C27</f>
         <v>202264</v>
       </c>
-      <c r="F23">
+      <c r="F29">
         <f>Memcached!C27</f>
         <v>263195.66666666669</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>5</v>
       </c>
-      <c r="C24">
+      <c r="C30">
         <f>Redis!C28</f>
         <v>4726.9578685717897</v>
       </c>
-      <c r="D24">
+      <c r="D30">
         <f>Riak!C28</f>
         <v>1778.1582630532967</v>
       </c>
-      <c r="E24">
+      <c r="E30">
         <f>Aerospike!C28</f>
         <v>4945.3776482559506</v>
       </c>
-      <c r="F24">
+      <c r="F30">
         <f>Memcached!C28</f>
         <v>3863.5883942419064</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C25">
+      <c r="C31">
         <f>Redis!C29</f>
         <v>949836</v>
       </c>
-      <c r="D25">
+      <c r="D31">
         <f>Riak!C29</f>
         <v>949728</v>
       </c>
-      <c r="E25">
+      <c r="E31">
         <f>Aerospike!C29</f>
         <v>949706</v>
       </c>
-      <c r="F25">
+      <c r="F31">
         <f>Memcached!C29</f>
         <v>950435</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <f>Redis!C30</f>
-        <v>845.21823030995529</v>
-      </c>
-      <c r="D26">
-        <f>Riak!C30</f>
-        <v>2072.9082253935767</v>
-      </c>
-      <c r="E26">
-        <f>Aerospike!C30</f>
-        <v>805.96629449109275</v>
-      </c>
-      <c r="F26">
-        <f>Memcached!C30</f>
-        <v>1046.1802303928137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27">
-        <f>Redis!C31</f>
-        <v>313.66666666666669</v>
-      </c>
-      <c r="D27">
-        <f>Riak!C31</f>
-        <v>825.33333333333337</v>
-      </c>
-      <c r="E27">
-        <f>Aerospike!C31</f>
-        <v>313.33333333333331</v>
-      </c>
-      <c r="F27">
-        <f>Memcached!C31</f>
-        <v>389</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28">
-        <f>Redis!C32</f>
-        <v>50559</v>
-      </c>
-      <c r="D28">
-        <f>Riak!C32</f>
-        <v>110356.33333333333</v>
-      </c>
-      <c r="E28">
-        <f>Aerospike!C32</f>
-        <v>25732.333333333332</v>
-      </c>
-      <c r="F28">
-        <f>Memcached!C32</f>
-        <v>112020.33333333333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29">
-        <f>Redis!C33</f>
-        <v>1325</v>
-      </c>
-      <c r="D29">
-        <f>Riak!C33</f>
-        <v>3232.3333333333335</v>
-      </c>
-      <c r="E29">
-        <f>Aerospike!C33</f>
-        <v>1188</v>
-      </c>
-      <c r="F29">
-        <f>Memcached!C33</f>
-        <v>1735.3333333333333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30">
-        <f>Redis!C34</f>
-        <v>2232.3333333333335</v>
-      </c>
-      <c r="D30">
-        <f>Riak!C34</f>
-        <v>6805.666666666667</v>
-      </c>
-      <c r="E30">
-        <f>Aerospike!C34</f>
-        <v>1756</v>
-      </c>
-      <c r="F30">
-        <f>Memcached!C34</f>
-        <v>2813</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31">
-        <f>Redis!C35</f>
-        <v>50164</v>
-      </c>
-      <c r="D31">
-        <f>Riak!C35</f>
-        <v>50272</v>
-      </c>
-      <c r="E31">
-        <f>Aerospike!C35</f>
-        <v>50294</v>
-      </c>
-      <c r="F31">
-        <f>Memcached!C35</f>
-        <v>49565</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -8851,20 +8860,20 @@
         <v>8</v>
       </c>
       <c r="C32">
-        <f>Redis!C36</f>
-        <v>841.38027581715448</v>
+        <f>Redis!C30</f>
+        <v>845.21823030995529</v>
       </c>
       <c r="D32">
-        <f>Riak!C36</f>
-        <v>5827.5136784126071</v>
+        <f>Riak!C30</f>
+        <v>2072.9082253935767</v>
       </c>
       <c r="E32">
-        <f>Aerospike!C36</f>
-        <v>809.97773750073532</v>
+        <f>Aerospike!C30</f>
+        <v>805.96629449109275</v>
       </c>
       <c r="F32">
-        <f>Memcached!C36</f>
-        <v>1064.235560477892</v>
+        <f>Memcached!C30</f>
+        <v>1046.1802303928137</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -8872,20 +8881,20 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <f>Redis!C37</f>
-        <v>342</v>
+        <f>Redis!C31</f>
+        <v>313.66666666666669</v>
       </c>
       <c r="D33">
-        <f>Riak!C37</f>
-        <v>2765.3333333333335</v>
+        <f>Riak!C31</f>
+        <v>825.33333333333337</v>
       </c>
       <c r="E33">
-        <f>Aerospike!C37</f>
-        <v>341.33333333333331</v>
+        <f>Aerospike!C31</f>
+        <v>313.33333333333331</v>
       </c>
       <c r="F33">
-        <f>Memcached!C37</f>
-        <v>406.66666666666669</v>
+        <f>Memcached!C31</f>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -8893,20 +8902,20 @@
         <v>11</v>
       </c>
       <c r="C34">
-        <f>Redis!C38</f>
-        <v>41449.666666666664</v>
+        <f>Redis!C32</f>
+        <v>50559</v>
       </c>
       <c r="D34">
-        <f>Riak!C38</f>
-        <v>127231</v>
+        <f>Riak!C32</f>
+        <v>110356.33333333333</v>
       </c>
       <c r="E34">
-        <f>Aerospike!C38</f>
-        <v>17132.333333333332</v>
+        <f>Aerospike!C32</f>
+        <v>25732.333333333332</v>
       </c>
       <c r="F34">
-        <f>Memcached!C38</f>
-        <v>91625.666666666672</v>
+        <f>Memcached!C32</f>
+        <v>112020.33333333333</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8914,20 +8923,20 @@
         <v>12</v>
       </c>
       <c r="C35">
-        <f>Redis!C39</f>
-        <v>1322.3333333333333</v>
+        <f>Redis!C33</f>
+        <v>1325</v>
       </c>
       <c r="D35">
-        <f>Riak!C39</f>
-        <v>8903</v>
+        <f>Riak!C33</f>
+        <v>3232.3333333333335</v>
       </c>
       <c r="E35">
-        <f>Aerospike!C39</f>
-        <v>1197.6666666666667</v>
+        <f>Aerospike!C33</f>
+        <v>1188</v>
       </c>
       <c r="F35">
-        <f>Memcached!C39</f>
-        <v>1752.6666666666667</v>
+        <f>Memcached!C33</f>
+        <v>1735.3333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -8935,211 +8944,465 @@
         <v>13</v>
       </c>
       <c r="C36">
+        <f>Redis!C34</f>
+        <v>2232.3333333333335</v>
+      </c>
+      <c r="D36">
+        <f>Riak!C34</f>
+        <v>6805.666666666667</v>
+      </c>
+      <c r="E36">
+        <f>Aerospike!C34</f>
+        <v>1756</v>
+      </c>
+      <c r="F36">
+        <f>Memcached!C34</f>
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <f>Redis!C35</f>
+        <v>50164</v>
+      </c>
+      <c r="D37">
+        <f>Riak!C35</f>
+        <v>50272</v>
+      </c>
+      <c r="E37">
+        <f>Aerospike!C35</f>
+        <v>50294</v>
+      </c>
+      <c r="F37">
+        <f>Memcached!C35</f>
+        <v>49565</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <f>Redis!C36</f>
+        <v>841.38027581715448</v>
+      </c>
+      <c r="D38">
+        <f>Riak!C36</f>
+        <v>5827.5136784126071</v>
+      </c>
+      <c r="E38">
+        <f>Aerospike!C36</f>
+        <v>809.97773750073532</v>
+      </c>
+      <c r="F38">
+        <f>Memcached!C36</f>
+        <v>1064.235560477892</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <f>Redis!C37</f>
+        <v>342</v>
+      </c>
+      <c r="D39">
+        <f>Riak!C37</f>
+        <v>2765.3333333333335</v>
+      </c>
+      <c r="E39">
+        <f>Aerospike!C37</f>
+        <v>341.33333333333331</v>
+      </c>
+      <c r="F39">
+        <f>Memcached!C37</f>
+        <v>406.66666666666669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <f>Redis!C38</f>
+        <v>41449.666666666664</v>
+      </c>
+      <c r="D40">
+        <f>Riak!C38</f>
+        <v>127231</v>
+      </c>
+      <c r="E40">
+        <f>Aerospike!C38</f>
+        <v>17132.333333333332</v>
+      </c>
+      <c r="F40">
+        <f>Memcached!C38</f>
+        <v>91625.666666666672</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <f>Redis!C39</f>
+        <v>1322.3333333333333</v>
+      </c>
+      <c r="D41">
+        <f>Riak!C39</f>
+        <v>8903</v>
+      </c>
+      <c r="E41">
+        <f>Aerospike!C39</f>
+        <v>1197.6666666666667</v>
+      </c>
+      <c r="F41">
+        <f>Memcached!C39</f>
+        <v>1752.6666666666667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42">
         <f>Redis!C40</f>
         <v>2243.3333333333335</v>
       </c>
-      <c r="D36">
+      <c r="D42">
         <f>Riak!C40</f>
         <v>14495</v>
       </c>
-      <c r="E36">
+      <c r="E42">
         <f>Aerospike!C40</f>
         <v>1779.6666666666667</v>
       </c>
-      <c r="F36">
+      <c r="F42">
         <f>Memcached!C40</f>
         <v>2851</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43">
+        <v>1000000</v>
+      </c>
+      <c r="D43">
+        <v>1000000</v>
+      </c>
+      <c r="E43">
+        <v>1000000</v>
+      </c>
+      <c r="F43">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <f>AVERAGEA(C32,C38)</f>
+        <v>843.29925306355494</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:F44" si="5">AVERAGEA(D32,D38)</f>
+        <v>3950.2109519030919</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="5"/>
+        <v>807.97201599591403</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="5"/>
+        <v>1055.2078954353528</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:F48" si="6">AVERAGEA(C33,C39)</f>
+        <v>327.83333333333337</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="6"/>
+        <v>1795.3333333333335</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="6"/>
+        <v>327.33333333333331</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="6"/>
+        <v>397.83333333333337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="6"/>
+        <v>46004.333333333328</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="6"/>
+        <v>118793.66666666666</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="6"/>
+        <v>21432.333333333332</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="6"/>
+        <v>101823</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="6"/>
+        <v>1323.6666666666665</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="6"/>
+        <v>6067.666666666667</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="6"/>
+        <v>1192.8333333333335</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="6"/>
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="6"/>
+        <v>2237.8333333333335</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="6"/>
+        <v>10650.333333333334</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="6"/>
+        <v>1767.8333333333335</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="6"/>
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>0</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C53" t="s">
         <v>1</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D53" t="s">
         <v>2</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E53" t="s">
         <v>3</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F53" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>4</v>
       </c>
-      <c r="C42">
+      <c r="C54">
         <f>Redis!C46</f>
         <v>205492.66666666666</v>
       </c>
-      <c r="D42">
+      <c r="D54">
         <f>Riak!C46</f>
         <v>562029.33333333337</v>
       </c>
-      <c r="E42">
+      <c r="E54">
         <f>Aerospike!C46</f>
         <v>209528</v>
       </c>
-      <c r="F42">
+      <c r="F54">
         <f>Memcached!C46</f>
         <v>221353.33333333334</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>5</v>
       </c>
-      <c r="C43">
+      <c r="C55">
         <f>Redis!C47</f>
         <v>4868.3014319549338</v>
       </c>
-      <c r="D43">
+      <c r="D55">
         <f>Riak!C47</f>
         <v>1783.3907950035066</v>
       </c>
-      <c r="E43">
+      <c r="E55">
         <f>Aerospike!C47</f>
         <v>4778.1274961757899</v>
       </c>
-      <c r="F43">
+      <c r="F55">
         <f>Memcached!C47</f>
         <v>4517.6713328397063</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>9</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B56" t="s">
         <v>16</v>
       </c>
-      <c r="C44">
+      <c r="C56">
         <f>Redis!C48</f>
         <v>1000000</v>
       </c>
-      <c r="D44">
+      <c r="D56">
         <f>Riak!C48</f>
         <v>1000000</v>
       </c>
-      <c r="E44">
+      <c r="E56">
         <f>Aerospike!C48</f>
         <v>1000000</v>
       </c>
-      <c r="F44">
+      <c r="F56">
         <f>Memcached!C48</f>
         <v>1000000</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>8</v>
       </c>
-      <c r="C45">
+      <c r="C57">
         <f>Redis!C49</f>
         <v>819.3226933333334</v>
       </c>
-      <c r="D45">
+      <c r="D57">
         <f>Riak!C49</f>
         <v>2241.0063320000004</v>
       </c>
-      <c r="E45">
+      <c r="E57">
         <f>Aerospike!C49</f>
         <v>835.167418</v>
       </c>
-      <c r="F45">
+      <c r="F57">
         <f>Memcached!C49</f>
         <v>880.1736556666666</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>10</v>
       </c>
-      <c r="C46">
+      <c r="C58">
         <f>Redis!C50</f>
         <v>308.66666666666669</v>
       </c>
-      <c r="D46">
+      <c r="D58">
         <f>Riak!C50</f>
         <v>804.66666666666663</v>
       </c>
-      <c r="E46">
+      <c r="E58">
         <f>Aerospike!C50</f>
         <v>319.33333333333331</v>
       </c>
-      <c r="F46">
+      <c r="F58">
         <f>Memcached!C50</f>
         <v>376</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>11</v>
       </c>
-      <c r="C47">
+      <c r="C59">
         <f>Redis!C51</f>
         <v>33935</v>
       </c>
-      <c r="D47">
+      <c r="D59">
         <f>Riak!C51</f>
         <v>83903</v>
       </c>
-      <c r="E47">
+      <c r="E59">
         <f>Aerospike!C51</f>
         <v>41881.666666666664</v>
       </c>
-      <c r="F47">
+      <c r="F59">
         <f>Memcached!C51</f>
         <v>39071</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>12</v>
       </c>
-      <c r="C48">
+      <c r="C60">
         <f>Redis!C52</f>
         <v>1213.3333333333333</v>
       </c>
-      <c r="D48">
+      <c r="D60">
         <f>Riak!C52</f>
         <v>3714.3333333333335</v>
       </c>
-      <c r="E48">
+      <c r="E60">
         <f>Aerospike!C52</f>
         <v>1242.3333333333333</v>
       </c>
-      <c r="F48">
+      <c r="F60">
         <f>Memcached!C52</f>
         <v>1233.3333333333333</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>13</v>
       </c>
-      <c r="C49">
+      <c r="C61">
         <f>Redis!C53</f>
         <v>1856</v>
       </c>
-      <c r="D49">
+      <c r="D61">
         <f>Riak!C53</f>
         <v>7885.666666666667</v>
       </c>
-      <c r="E49">
+      <c r="E61">
         <f>Aerospike!C53</f>
         <v>1861.6666666666667</v>
       </c>
-      <c r="F49">
+      <c r="F61">
         <f>Memcached!C53</f>
         <v>1615.3333333333333</v>
       </c>
@@ -9151,6 +9414,704 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E628E191-458C-48C1-BA88-DA60FE101777}">
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>38866</v>
+      </c>
+      <c r="D4">
+        <v>82548</v>
+      </c>
+      <c r="E4">
+        <v>19436</v>
+      </c>
+      <c r="F4">
+        <v>25485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2572.9429321257599</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>5145.0915826301698</v>
+      </c>
+      <c r="F5">
+        <v>3923.87679026878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>100000</v>
+      </c>
+      <c r="D6">
+        <v>100000</v>
+      </c>
+      <c r="E6">
+        <v>100000</v>
+      </c>
+      <c r="F6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1546.5329300000001</v>
+      </c>
+      <c r="D7">
+        <v>3260.0788400000001</v>
+      </c>
+      <c r="E7">
+        <v>768.75090999999998</v>
+      </c>
+      <c r="F7">
+        <v>980.03053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>758</v>
+      </c>
+      <c r="D8">
+        <v>1164</v>
+      </c>
+      <c r="E8">
+        <v>315</v>
+      </c>
+      <c r="F8">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>33535</v>
+      </c>
+      <c r="D9">
+        <v>403967</v>
+      </c>
+      <c r="E9">
+        <v>65983</v>
+      </c>
+      <c r="F9">
+        <v>49951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>2205</v>
+      </c>
+      <c r="D10">
+        <v>6127</v>
+      </c>
+      <c r="E10">
+        <v>1096</v>
+      </c>
+      <c r="F10">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>3033</v>
+      </c>
+      <c r="D11">
+        <v>11855</v>
+      </c>
+      <c r="E11">
+        <v>1492</v>
+      </c>
+      <c r="F11">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>38448</v>
+      </c>
+      <c r="D17">
+        <v>63834</v>
+      </c>
+      <c r="E17">
+        <v>21084</v>
+      </c>
+      <c r="F17">
+        <v>26219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>2600.9155222638301</v>
+      </c>
+      <c r="D18">
+        <v>1566.5632734906101</v>
+      </c>
+      <c r="E18">
+        <v>4742.9330297856104</v>
+      </c>
+      <c r="F18">
+        <v>3814.02799496548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>100000</v>
+      </c>
+      <c r="D19">
+        <v>100000</v>
+      </c>
+      <c r="E19">
+        <v>100000</v>
+      </c>
+      <c r="F19">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>1530.1638800000001</v>
+      </c>
+      <c r="D20">
+        <v>2521.18208</v>
+      </c>
+      <c r="E20">
+        <v>835.85717</v>
+      </c>
+      <c r="F20">
+        <v>1018.51215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>749</v>
+      </c>
+      <c r="D21">
+        <v>1083</v>
+      </c>
+      <c r="E21">
+        <v>325</v>
+      </c>
+      <c r="F21">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>16215</v>
+      </c>
+      <c r="D22">
+        <v>234751</v>
+      </c>
+      <c r="E22">
+        <v>24479</v>
+      </c>
+      <c r="F22">
+        <v>66623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>2123</v>
+      </c>
+      <c r="D23">
+        <v>3541</v>
+      </c>
+      <c r="E23">
+        <v>1300</v>
+      </c>
+      <c r="F23">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>3151</v>
+      </c>
+      <c r="D24">
+        <v>6315</v>
+      </c>
+      <c r="E24">
+        <v>1906</v>
+      </c>
+      <c r="F24">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>40238</v>
+      </c>
+      <c r="D30">
+        <v>62865</v>
+      </c>
+      <c r="E30">
+        <v>20116</v>
+      </c>
+      <c r="F30">
+        <v>24534</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>2485.2129827526201</v>
+      </c>
+      <c r="D31">
+        <v>1590.7102521275699</v>
+      </c>
+      <c r="E31">
+        <v>4971.1672300656101</v>
+      </c>
+      <c r="F31">
+        <v>4075.9761962990101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>100000</v>
+      </c>
+      <c r="D32">
+        <v>100000</v>
+      </c>
+      <c r="E32">
+        <v>100000</v>
+      </c>
+      <c r="F32">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>1602.16408</v>
+      </c>
+      <c r="D33">
+        <v>2480.51809</v>
+      </c>
+      <c r="E33">
+        <v>797.11816999999996</v>
+      </c>
+      <c r="F33">
+        <v>952.01183000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>779</v>
+      </c>
+      <c r="D34">
+        <v>1117</v>
+      </c>
+      <c r="E34">
+        <v>316</v>
+      </c>
+      <c r="F34">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>20031</v>
+      </c>
+      <c r="D35">
+        <v>338943</v>
+      </c>
+      <c r="E35">
+        <v>14319</v>
+      </c>
+      <c r="F35">
+        <v>95359</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>2329</v>
+      </c>
+      <c r="D36">
+        <v>3491</v>
+      </c>
+      <c r="E36">
+        <v>1202</v>
+      </c>
+      <c r="F36">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>3401</v>
+      </c>
+      <c r="D37">
+        <v>6203</v>
+      </c>
+      <c r="E37">
+        <v>1672</v>
+      </c>
+      <c r="F37">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <f>AVERAGEA(C4,C17,C30)</f>
+        <v>39184</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43:F45" si="0">AVERAGEA(D4,D17,D30)</f>
+        <v>69749</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>20212</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>25412.666666666668</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <f>AVERAGEA(C5,C18,C31)</f>
+        <v>2553.0238123807371</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>1052.4245085393934</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>4953.0639474937971</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>3937.9603271777564</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45">
+        <f>AVERAGEA(C6,C19,C32)</f>
+        <v>100000</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:F46" si="1">AVERAGEA(C7,C20,C33)</f>
+        <v>1559.6202966666667</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>2753.9263366666669</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>800.57541666666657</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>983.51816999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47:F47" si="2">AVERAGEA(C8,C21,C34)</f>
+        <v>762</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>1121.3333333333333</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>318.66666666666669</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>406.33333333333331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48:F48" si="3">AVERAGEA(C9,C22,C35)</f>
+        <v>23260.333333333332</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="3"/>
+        <v>325887</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>34927</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="3"/>
+        <v>70644.333333333328</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49:F49" si="4">AVERAGEA(C10,C23,C36)</f>
+        <v>2219</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="4"/>
+        <v>4386.333333333333</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="4"/>
+        <v>1199.3333333333333</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="4"/>
+        <v>1536.6666666666667</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50:F50" si="5">AVERAGEA(C11,C24,C37)</f>
+        <v>3195</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="5"/>
+        <v>8124.333333333333</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="5"/>
+        <v>1690</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="5"/>
+        <v>2322.3333333333335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CA6185-A47A-430A-AEC2-7ED0A4C5D4C7}">
   <dimension ref="A1:F53"/>
   <sheetViews>
@@ -9904,7 +10865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8B41AC-D64A-4E90-ABED-E837F425F881}">
   <dimension ref="A1:F53"/>
   <sheetViews>
@@ -10657,7 +11618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDCD321-116C-4788-8C82-6E80CAB0FE5C}">
   <dimension ref="A1:F53"/>
   <sheetViews>
@@ -11410,7 +12371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C80EE16-73D0-4778-A1BC-D419AAA6A283}">
   <dimension ref="A1:F53"/>
   <sheetViews>

--- a/Tests/DB Tests.xlsx
+++ b/Tests/DB Tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD_VSB\Git VŠB - StandAlones\DP-KVDBS\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BEDA29-A853-4DA2-BD0D-658911E140AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D47B49-51DD-4ECD-BD68-FF0E2514F0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Workloads - Read,Write" sheetId="1" r:id="rId1"/>
@@ -8310,8 +8310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8755,11 +8755,11 @@
         <v>1904.5</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:F23" si="4">AVERAGEA(D11,D17)</f>
+        <f>AVERAGEA(D11,D17)</f>
         <v>11865.666666666668</v>
       </c>
       <c r="E23">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D23:F23" si="4">AVERAGEA(E11,E17)</f>
         <v>1539.3333333333333</v>
       </c>
       <c r="F23">
@@ -9417,7 +9417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E628E191-458C-48C1-BA88-DA60FE101777}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>

--- a/Tests/DB Tests.xlsx
+++ b/Tests/DB Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD_VSB\Git VŠB - StandAlones\DP-KVDBS\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D47B49-51DD-4ECD-BD68-FF0E2514F0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4BFD91-47E5-4DA3-A0EE-1E390E56F833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Workloads - Read,Write" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="24">
-  <si>
-    <t>DB</t>
-  </si>
   <si>
     <t>Redis</t>
   </si>
@@ -106,13 +103,16 @@
     <t>Insert</t>
   </si>
   <si>
-    <t>R+W</t>
-  </si>
-  <si>
     <t>1211.4163880408973</t>
   </si>
   <si>
     <t>Average Insert - Workloads A, B, C</t>
+  </si>
+  <si>
+    <t>DBS</t>
+  </si>
+  <si>
+    <t>Rea+Upd</t>
   </si>
 </sst>
 </file>
@@ -264,21 +264,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - Read,Write'!$C$16:$F$16</c:f>
+              <c:f>'Workloads - Read,Write'!$C$22:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1264.6666666666667</c:v>
+                  <c:v>1273</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9819</c:v>
+                  <c:v>6757</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1121</c:v>
+                  <c:v>1121.8333333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1387.6666666666667</c:v>
+                  <c:v>1386.3333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -286,6 +286,888 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C648-4F78-ADA6-6E060005B7C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1198017951"/>
+        <c:axId val="849278863"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1198017951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="849278863"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="849278863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1198017951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Workloads - Read,Write'!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>95thPercentileLatency(us)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Workloads - Read,Write'!$C$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Redis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Riak</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Aerospike</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Workloads - Insert'!$C$49:$F$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4386.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1199.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1536.6666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-882A-4406-A112-CC203828CC04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1198017951"/>
+        <c:axId val="849278863"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1198017951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="849278863"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="849278863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1198017951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Workloads - Read,Write'!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>99thPercentileLatency(us)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Workloads - Read,Write'!$C$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Redis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Riak</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Aerospike</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Workloads - Insert'!$C$50:$F$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8124.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2322.3333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-487C-4CB8-9FEE-5E1F61D48532}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1198017951"/>
+        <c:axId val="849278863"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1198017951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="849278863"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="849278863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1198017951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Workloads - Read,Write'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throughput(ops/sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Workloads - Read,Write'!$C$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Redis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Riak</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Aerospike</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Workloads - Insert'!$C$44:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2553.0238123807371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1052.4245085393934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4953.0639474937971</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3937.9603271777564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C07-47ED-8845-FF6590C02C8D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -558,21 +1440,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - Read,Write'!$C$17:$F$17</c:f>
+              <c:f>'Workloads - Read,Write'!$C$23:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1891.6666666666667</c:v>
+                  <c:v>1904.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16332.333333333334</c:v>
+                  <c:v>11865.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1538.3333333333333</c:v>
+                  <c:v>1539.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1850.6666666666667</c:v>
+                  <c:v>1848.3333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -852,21 +1734,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - Read,Write'!$C$41:$F$41</c:f>
+              <c:f>'Workloads - Read,Write'!$C$47:$F$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1322.3333333333333</c:v>
+                  <c:v>1323.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8903</c:v>
+                  <c:v>6067.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1197.6666666666667</c:v>
+                  <c:v>1192.8333333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1752.6666666666667</c:v>
+                  <c:v>1744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1146,21 +2028,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - Read,Write'!$C$42:$F$42</c:f>
+              <c:f>'Workloads - Read,Write'!$C$48:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2243.3333333333335</c:v>
+                  <c:v>2237.8333333333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14495</c:v>
+                  <c:v>10650.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1779.6666666666667</c:v>
+                  <c:v>1767.8333333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2851</c:v>
+                  <c:v>2832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2853,6 +3735,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3676,7 +4678,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4179,7 +5181,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4682,7 +5684,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5185,7 +6187,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5688,7 +6690,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6191,7 +7193,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6694,7 +7696,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7197,7 +8199,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7700,20 +8702,1529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7741,15 +10252,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7778,16 +10289,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7817,15 +10328,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7854,16 +10365,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7892,16 +10403,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7931,15 +10442,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7969,15 +10480,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8007,15 +10518,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8037,6 +10548,125 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graf 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2491FFB-3C97-4024-BB37-BB011309D5E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graf 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC04D458-C5CB-48DA-AF77-89E70978B3A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graf 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{521BE95E-194F-4D21-9244-8BAF4EF51EE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8310,8 +10940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8322,29 +10952,29 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <f>Redis!C8</f>
@@ -8365,7 +10995,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <f>Redis!C9</f>
@@ -8386,10 +11016,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <f>Redis!C10</f>
@@ -8410,7 +11040,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <f>Redis!C11</f>
@@ -8431,7 +11061,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <f>Redis!C12</f>
@@ -8452,7 +11082,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <f>Redis!C13</f>
@@ -8473,7 +11103,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <f>Redis!C14</f>
@@ -8494,7 +11124,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <f>Redis!C15</f>
@@ -8515,10 +11145,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <f>Redis!C16</f>
@@ -8539,7 +11169,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <f>Redis!C17</f>
@@ -8560,7 +11190,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <f>Redis!C18</f>
@@ -8581,7 +11211,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <f>Redis!C19</f>
@@ -8602,7 +11232,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <f>Redis!C20</f>
@@ -8623,7 +11253,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <f>Redis!C21</f>
@@ -8644,13 +11274,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="D18">
         <v>1000000</v>
@@ -8664,7 +11294,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <f>AVERAGEA(C7,C13)</f>
@@ -8685,7 +11315,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <f>AVERAGEA(C8,C14)</f>
@@ -8706,7 +11336,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <f>AVERAGEA(C9,C15)</f>
@@ -8727,7 +11357,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <f>AVERAGEA(C10,C16)</f>
@@ -8748,7 +11378,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23">
         <f>AVERAGEA(C11,C17)</f>
@@ -8759,7 +11389,7 @@
         <v>11865.666666666668</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="D23:F23" si="4">AVERAGEA(E11,E17)</f>
+        <f t="shared" ref="E23:F23" si="4">AVERAGEA(E11,E17)</f>
         <v>1539.3333333333333</v>
       </c>
       <c r="F23">
@@ -8769,29 +11399,29 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
         <v>0</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>1</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>2</v>
       </c>
-      <c r="E28" t="s">
-        <v>3</v>
-      </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29">
         <f>Redis!C27</f>
@@ -8812,7 +11442,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <f>Redis!C28</f>
@@ -8833,10 +11463,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31">
         <f>Redis!C29</f>
@@ -8857,7 +11487,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <f>Redis!C30</f>
@@ -8878,7 +11508,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <f>Redis!C31</f>
@@ -8899,7 +11529,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <f>Redis!C32</f>
@@ -8920,7 +11550,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <f>Redis!C33</f>
@@ -8941,7 +11571,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <f>Redis!C34</f>
@@ -8962,10 +11592,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37">
         <f>Redis!C35</f>
@@ -8986,7 +11616,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <f>Redis!C36</f>
@@ -9007,7 +11637,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <f>Redis!C37</f>
@@ -9028,7 +11658,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40">
         <f>Redis!C38</f>
@@ -9049,7 +11679,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41">
         <f>Redis!C39</f>
@@ -9070,7 +11700,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42">
         <f>Redis!C40</f>
@@ -9091,10 +11721,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43">
         <v>1000000</v>
@@ -9111,7 +11741,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44">
         <f>AVERAGEA(C32,C38)</f>
@@ -9132,7 +11762,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <f t="shared" ref="C45:F48" si="6">AVERAGEA(C33,C39)</f>
@@ -9153,7 +11783,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C46">
         <f t="shared" si="6"/>
@@ -9174,7 +11804,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47">
         <f t="shared" si="6"/>
@@ -9195,7 +11825,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48">
         <f t="shared" si="6"/>
@@ -9216,29 +11846,29 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" t="s">
         <v>0</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>1</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>2</v>
       </c>
-      <c r="E53" t="s">
-        <v>3</v>
-      </c>
       <c r="F53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <f>Redis!C46</f>
@@ -9259,7 +11889,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55">
         <f>Redis!C47</f>
@@ -9280,10 +11910,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C56">
         <f>Redis!C48</f>
@@ -9304,7 +11934,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57">
         <f>Redis!C49</f>
@@ -9325,7 +11955,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58">
         <f>Redis!C50</f>
@@ -9346,7 +11976,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59">
         <f>Redis!C51</f>
@@ -9367,7 +11997,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60">
         <f>Redis!C52</f>
@@ -9388,7 +12018,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C61">
         <f>Redis!C53</f>
@@ -9418,7 +12048,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9432,29 +12062,29 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>38866</v>
@@ -9471,13 +12101,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>2572.9429321257599</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>5145.0915826301698</v>
@@ -9488,10 +12118,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>100000</v>
@@ -9508,7 +12138,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>1546.5329300000001</v>
@@ -9525,7 +12155,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>758</v>
@@ -9542,7 +12172,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>33535</v>
@@ -9559,7 +12189,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>2205</v>
@@ -9576,7 +12206,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>3033</v>
@@ -9593,29 +12223,29 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>38448</v>
@@ -9632,7 +12262,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>2600.9155222638301</v>
@@ -9649,10 +12279,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>100000</v>
@@ -9669,7 +12299,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>1530.1638800000001</v>
@@ -9686,7 +12316,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>749</v>
@@ -9703,7 +12333,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>16215</v>
@@ -9720,7 +12350,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>2123</v>
@@ -9737,7 +12367,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24">
         <v>3151</v>
@@ -9754,29 +12384,29 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
         <v>0</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>1</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>2</v>
       </c>
-      <c r="E29" t="s">
-        <v>3</v>
-      </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30">
         <v>40238</v>
@@ -9793,7 +12423,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <v>2485.2129827526201</v>
@@ -9810,10 +12440,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>100000</v>
@@ -9830,7 +12460,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <v>1602.16408</v>
@@ -9847,7 +12477,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>779</v>
@@ -9864,7 +12494,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>20031</v>
@@ -9881,7 +12511,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36">
         <v>2329</v>
@@ -9898,7 +12528,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37">
         <v>3401</v>
@@ -9915,29 +12545,29 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
         <v>0</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>1</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>2</v>
       </c>
-      <c r="E42" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43">
         <f>AVERAGEA(C4,C17,C30)</f>
@@ -9958,7 +12588,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44">
         <f>AVERAGEA(C5,C18,C31)</f>
@@ -9979,10 +12609,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45">
         <f>AVERAGEA(C6,C19,C32)</f>
@@ -10003,7 +12633,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46">
         <f t="shared" ref="C46:F46" si="1">AVERAGEA(C7,C20,C33)</f>
@@ -10024,7 +12654,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47">
         <f t="shared" ref="C47:F47" si="2">AVERAGEA(C8,C21,C34)</f>
@@ -10045,7 +12675,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48">
         <f t="shared" ref="C48:F48" si="3">AVERAGEA(C9,C22,C35)</f>
@@ -10066,7 +12696,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49">
         <f t="shared" ref="C49:F49" si="4">AVERAGEA(C10,C23,C36)</f>
@@ -10087,7 +12717,7 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50">
         <f t="shared" ref="C50:F50" si="5">AVERAGEA(C11,C24,C37)</f>
@@ -10108,6 +12738,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10115,7 +12746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CA6185-A47A-430A-AEC2-7ED0A4C5D4C7}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -10127,20 +12758,20 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -10154,7 +12785,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <f>AVERAGEA(D8:F8)</f>
@@ -10172,7 +12803,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C21" si="0">AVERAGEA(D9:F9)</f>
@@ -10190,10 +12821,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <f>D10</f>
@@ -10211,7 +12842,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -10229,7 +12860,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -10247,7 +12878,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -10265,7 +12896,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -10283,7 +12914,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -10301,10 +12932,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <f>D16</f>
@@ -10322,7 +12953,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -10340,7 +12971,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -10358,7 +12989,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -10376,7 +13007,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -10394,7 +13025,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -10412,15 +13043,15 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
         <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -10434,7 +13065,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <f>AVERAGEA(D27:F27)</f>
@@ -10452,7 +13083,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <f t="shared" ref="C28:C40" si="1">AVERAGEA(D28:F28)</f>
@@ -10470,10 +13101,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <f>D29</f>
@@ -10491,7 +13122,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -10509,7 +13140,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -10527,7 +13158,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -10545,7 +13176,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -10563,7 +13194,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -10581,10 +13212,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <f>D35</f>
@@ -10602,7 +13233,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
@@ -10620,7 +13251,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
@@ -10638,7 +13269,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
@@ -10656,7 +13287,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
@@ -10674,7 +13305,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
@@ -10692,15 +13323,15 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
         <v>6</v>
-      </c>
-      <c r="C45" t="s">
-        <v>7</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -10714,7 +13345,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46">
         <f>AVERAGEA(D46:F46)</f>
@@ -10732,7 +13363,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47">
         <f t="shared" ref="C47:C53" si="2">AVERAGEA(D47:F47)</f>
@@ -10750,10 +13381,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <f>D48</f>
@@ -10771,7 +13402,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49">
         <f>AVERAGEA(D49:F49)</f>
@@ -10789,7 +13420,7 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
@@ -10807,7 +13438,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
@@ -10825,7 +13456,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52">
         <f t="shared" si="2"/>
@@ -10843,7 +13474,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53">
         <f t="shared" si="2"/>
@@ -10881,20 +13512,20 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -10908,7 +13539,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <f>AVERAGEA(D8:F8)</f>
@@ -10926,7 +13557,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C21" si="0">AVERAGEA(D9:F9)</f>
@@ -10944,10 +13575,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <f>D10</f>
@@ -10965,7 +13596,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -10983,7 +13614,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -11001,7 +13632,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -11019,7 +13650,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -11037,7 +13668,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -11055,10 +13686,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <f>D16</f>
@@ -11076,7 +13707,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -11094,7 +13725,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -11112,7 +13743,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -11130,7 +13761,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -11148,7 +13779,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -11166,15 +13797,15 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
         <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -11188,7 +13819,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <f>AVERAGEA(D27:F27)</f>
@@ -11206,7 +13837,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <f t="shared" ref="C28:C40" si="1">AVERAGEA(D28:F28)</f>
@@ -11224,10 +13855,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <f>D29</f>
@@ -11245,7 +13876,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -11263,7 +13894,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -11281,7 +13912,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -11299,7 +13930,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -11317,7 +13948,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -11335,10 +13966,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <f>D35</f>
@@ -11356,7 +13987,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
@@ -11374,7 +14005,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
@@ -11392,7 +14023,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
@@ -11410,7 +14041,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
@@ -11428,7 +14059,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
@@ -11446,15 +14077,15 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
         <v>6</v>
-      </c>
-      <c r="C45" t="s">
-        <v>7</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -11468,7 +14099,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46">
         <f>AVERAGEA(D46:F46)</f>
@@ -11486,7 +14117,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47">
         <f t="shared" ref="C47:C53" si="2">AVERAGEA(D47:F47)</f>
@@ -11504,10 +14135,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <f>D48</f>
@@ -11525,7 +14156,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49">
         <f t="shared" si="2"/>
@@ -11543,7 +14174,7 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
@@ -11561,7 +14192,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
@@ -11579,7 +14210,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52">
         <f t="shared" si="2"/>
@@ -11597,7 +14228,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53">
         <f t="shared" si="2"/>
@@ -11634,20 +14265,20 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -11661,7 +14292,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <f>AVERAGEA(D8:F8)</f>
@@ -11679,7 +14310,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C21" si="0">AVERAGEA(D9:F9)</f>
@@ -11697,10 +14328,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <f>D10</f>
@@ -11718,7 +14349,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -11736,7 +14367,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -11754,7 +14385,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -11772,7 +14403,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -11790,7 +14421,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -11808,10 +14439,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <f>D16</f>
@@ -11829,7 +14460,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -11847,7 +14478,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -11865,7 +14496,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -11883,7 +14514,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -11901,7 +14532,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -11919,15 +14550,15 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
         <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -11941,7 +14572,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <f>AVERAGEA(D27:F27)</f>
@@ -11959,7 +14590,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <f t="shared" ref="C28:C40" si="1">AVERAGEA(D28:F28)</f>
@@ -11977,10 +14608,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <f>D29</f>
@@ -11998,7 +14629,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -12016,7 +14647,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -12034,7 +14665,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -12052,7 +14683,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -12070,7 +14701,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -12088,10 +14719,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <f>D35</f>
@@ -12109,7 +14740,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
@@ -12127,7 +14758,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
@@ -12145,7 +14776,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
@@ -12163,7 +14794,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
@@ -12181,7 +14812,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
@@ -12199,15 +14830,15 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
         <v>6</v>
-      </c>
-      <c r="C45" t="s">
-        <v>7</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -12221,7 +14852,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46">
         <f>AVERAGEA(D46:F46)</f>
@@ -12239,7 +14870,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47">
         <f t="shared" ref="C47:C53" si="2">AVERAGEA(D47:F47)</f>
@@ -12257,10 +14888,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <f>D48</f>
@@ -12278,7 +14909,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49">
         <f t="shared" si="2"/>
@@ -12296,7 +14927,7 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
@@ -12314,7 +14945,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
@@ -12332,7 +14963,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52">
         <f t="shared" si="2"/>
@@ -12350,7 +14981,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53">
         <f t="shared" si="2"/>
@@ -12375,7 +15006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C80EE16-73D0-4778-A1BC-D419AAA6A283}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -12386,20 +15017,20 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -12413,7 +15044,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <f>AVERAGEA(D8:F8)</f>
@@ -12431,7 +15062,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C21" si="0">AVERAGEA(D9:F9)</f>
@@ -12449,10 +15080,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <f>D10</f>
@@ -12470,7 +15101,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -12488,7 +15119,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -12506,7 +15137,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -12524,7 +15155,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -12542,7 +15173,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -12560,10 +15191,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <f>D16</f>
@@ -12581,7 +15212,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -12599,7 +15230,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -12617,7 +15248,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -12635,7 +15266,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -12653,7 +15284,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -12671,15 +15302,15 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
         <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -12693,7 +15324,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <f>AVERAGEA(D27:F27)</f>
@@ -12711,7 +15342,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <f t="shared" ref="C28:C40" si="1">AVERAGEA(D28:F28)</f>
@@ -12729,10 +15360,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <f>D29</f>
@@ -12750,7 +15381,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -12768,7 +15399,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -12786,7 +15417,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -12804,7 +15435,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -12822,7 +15453,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -12840,10 +15471,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <f>D35</f>
@@ -12861,7 +15492,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
@@ -12879,7 +15510,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
@@ -12897,7 +15528,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
@@ -12915,7 +15546,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
@@ -12933,7 +15564,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
@@ -12951,15 +15582,15 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
         <v>6</v>
-      </c>
-      <c r="C45" t="s">
-        <v>7</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -12973,7 +15604,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46">
         <f>AVERAGEA(D46:F46)</f>
@@ -12991,7 +15622,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47">
         <f t="shared" ref="C47:C53" si="2">AVERAGEA(D47:F47)</f>
@@ -13009,10 +15640,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <f>D48</f>
@@ -13030,7 +15661,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49">
         <f>AVERAGEA(D49:F49)</f>
@@ -13048,7 +15679,7 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
@@ -13066,7 +15697,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
@@ -13084,7 +15715,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52">
         <f t="shared" si="2"/>
@@ -13102,7 +15733,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53">
         <f t="shared" si="2"/>

--- a/Tests/DB Tests.xlsx
+++ b/Tests/DB Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD_VSB\Git VŠB - StandAlones\DP-KVDBS\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4BFD91-47E5-4DA3-A0EE-1E390E56F833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F592B4-B485-40A7-92C8-A4B3E7EACF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10940,8 +10940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13500,7 +13500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8B41AC-D64A-4E90-ABED-E837F425F881}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -14253,8 +14253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDCD321-116C-4788-8C82-6E80CAB0FE5C}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tests/DB Tests.xlsx
+++ b/Tests/DB Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD_VSB\Git VŠB - StandAlones\DP-KVDBS\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F592B4-B485-40A7-92C8-A4B3E7EACF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4219637-4679-452B-BF28-5AA5F8A866B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Workloads - Read,Write" sheetId="1" r:id="rId1"/>
@@ -10940,7 +10940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
@@ -12047,8 +12047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E628E191-458C-48C1-BA88-DA60FE101777}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tests/DB Tests.xlsx
+++ b/Tests/DB Tests.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD_VSB\Git VŠB - StandAlones\DP-KVDBS\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4219637-4679-452B-BF28-5AA5F8A866B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFCC48D-2F1E-47F3-82AC-E94EA0EA3BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Workloads - Read,Write" sheetId="1" r:id="rId1"/>
+    <sheet name="Workloads - Read, Update" sheetId="1" r:id="rId1"/>
     <sheet name="Workloads - Insert" sheetId="6" r:id="rId2"/>
     <sheet name="Redis" sheetId="2" r:id="rId3"/>
-    <sheet name="Riak" sheetId="3" r:id="rId4"/>
+    <sheet name="Riak KV" sheetId="3" r:id="rId4"/>
     <sheet name="Aerospike" sheetId="4" r:id="rId5"/>
     <sheet name="Memcached" sheetId="5" r:id="rId6"/>
   </sheets>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="25">
   <si>
     <t>Redis</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Rea+Upd</t>
+  </si>
+  <si>
+    <t>Riak KV</t>
   </si>
 </sst>
 </file>
@@ -223,7 +226,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Workloads - Read,Write'!$B$16</c:f>
+              <c:f>'Workloads - Read, Update'!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -244,14 +247,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Workloads - Read,Write'!$C$3:$F$3</c:f>
+              <c:f>'Workloads - Read, Update'!$C$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Redis</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Riak</c:v>
+                  <c:v>Riak KV</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Aerospike</c:v>
@@ -264,7 +267,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - Read,Write'!$C$22:$F$22</c:f>
+              <c:f>'Workloads - Read, Update'!$C$22:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -517,7 +520,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Workloads - Read,Write'!$B$16</c:f>
+              <c:f>'Workloads - Read, Update'!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -538,14 +541,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Workloads - Read,Write'!$C$3:$F$3</c:f>
+              <c:f>'Workloads - Read, Update'!$C$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Redis</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Riak</c:v>
+                  <c:v>Riak KV</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Aerospike</c:v>
@@ -811,7 +814,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Workloads - Read,Write'!$B$17</c:f>
+              <c:f>'Workloads - Read, Update'!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -832,14 +835,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Workloads - Read,Write'!$C$3:$F$3</c:f>
+              <c:f>'Workloads - Read, Update'!$C$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Redis</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Riak</c:v>
+                  <c:v>Riak KV</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Aerospike</c:v>
@@ -1105,7 +1108,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Workloads - Read,Write'!$B$5</c:f>
+              <c:f>'Workloads - Read, Update'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1126,14 +1129,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Workloads - Read,Write'!$C$3:$F$3</c:f>
+              <c:f>'Workloads - Read, Update'!$C$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Redis</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Riak</c:v>
+                  <c:v>Riak KV</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Aerospike</c:v>
@@ -1399,7 +1402,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Workloads - Read,Write'!$B$17</c:f>
+              <c:f>'Workloads - Read, Update'!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1420,14 +1423,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Workloads - Read,Write'!$C$3:$F$3</c:f>
+              <c:f>'Workloads - Read, Update'!$C$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Redis</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Riak</c:v>
+                  <c:v>Riak KV</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Aerospike</c:v>
@@ -1440,7 +1443,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - Read,Write'!$C$23:$F$23</c:f>
+              <c:f>'Workloads - Read, Update'!$C$23:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1693,7 +1696,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Workloads - Read,Write'!$B$16</c:f>
+              <c:f>'Workloads - Read, Update'!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1714,14 +1717,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>('Workloads - Read,Write'!$C$3:$E$3,'Workloads - Read,Write'!$F$3)</c:f>
+              <c:f>('Workloads - Read, Update'!$C$3:$E$3,'Workloads - Read, Update'!$F$3)</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Redis</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Riak</c:v>
+                  <c:v>Riak KV</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Aerospike</c:v>
@@ -1734,7 +1737,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - Read,Write'!$C$47:$F$47</c:f>
+              <c:f>'Workloads - Read, Update'!$C$47:$F$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1987,7 +1990,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Workloads - Read,Write'!$B$17</c:f>
+              <c:f>'Workloads - Read, Update'!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2008,14 +2011,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>('Workloads - Read,Write'!$C$3:$E$3,'Workloads - Read,Write'!$F$3)</c:f>
+              <c:f>('Workloads - Read, Update'!$C$3:$E$3,'Workloads - Read, Update'!$F$3)</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Redis</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Riak</c:v>
+                  <c:v>Riak KV</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Aerospike</c:v>
@@ -2028,7 +2031,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - Read,Write'!$C$48:$F$48</c:f>
+              <c:f>'Workloads - Read, Update'!$C$48:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2281,7 +2284,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Workloads - Read,Write'!$B$16</c:f>
+              <c:f>'Workloads - Read, Update'!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2302,14 +2305,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>('Workloads - Read,Write'!$C$3:$E$3,'Workloads - Read,Write'!$F$3)</c:f>
+              <c:f>('Workloads - Read, Update'!$C$3:$E$3,'Workloads - Read, Update'!$F$3)</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Redis</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Riak</c:v>
+                  <c:v>Riak KV</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Aerospike</c:v>
@@ -2322,7 +2325,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - Read,Write'!$C$60:$F$60</c:f>
+              <c:f>'Workloads - Read, Update'!$C$60:$F$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2575,7 +2578,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Workloads - Read,Write'!$B$17</c:f>
+              <c:f>'Workloads - Read, Update'!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2596,14 +2599,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Workloads - Read,Write'!$C$3:$F$3</c:f>
+              <c:f>'Workloads - Read, Update'!$C$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Redis</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Riak</c:v>
+                  <c:v>Riak KV</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Aerospike</c:v>
@@ -2616,7 +2619,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - Read,Write'!$C$61:$F$61</c:f>
+              <c:f>'Workloads - Read, Update'!$C$61:$F$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2869,7 +2872,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Workloads - Read,Write'!$B$5</c:f>
+              <c:f>'Workloads - Read, Update'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2890,14 +2893,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Workloads - Read,Write'!$C$3:$F$3</c:f>
+              <c:f>'Workloads - Read, Update'!$C$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Redis</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Riak</c:v>
+                  <c:v>Riak KV</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Aerospike</c:v>
@@ -2910,7 +2913,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - Read,Write'!$C$5:$F$5</c:f>
+              <c:f>'Workloads - Read, Update'!$C$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3163,7 +3166,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Workloads - Read,Write'!$B$5</c:f>
+              <c:f>'Workloads - Read, Update'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3184,14 +3187,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>('Workloads - Read,Write'!$C$3:$E$3,'Workloads - Read,Write'!$F$3)</c:f>
+              <c:f>('Workloads - Read, Update'!$C$3:$E$3,'Workloads - Read, Update'!$F$3)</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Redis</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Riak</c:v>
+                  <c:v>Riak KV</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Aerospike</c:v>
@@ -3204,7 +3207,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - Read,Write'!$C$30:$F$30</c:f>
+              <c:f>'Workloads - Read, Update'!$C$30:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3457,7 +3460,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Workloads - Read,Write'!$B$5</c:f>
+              <c:f>'Workloads - Read, Update'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3478,14 +3481,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Workloads - Read,Write'!$C$3:$F$3</c:f>
+              <c:f>'Workloads - Read, Update'!$C$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Redis</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Riak</c:v>
+                  <c:v>Riak KV</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Aerospike</c:v>
@@ -3498,7 +3501,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Workloads - Read,Write'!$C$55:$F$55</c:f>
+              <c:f>'Workloads - Read, Update'!$C$55:$F$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10940,8 +10943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10963,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -10981,7 +10984,7 @@
         <v>208419</v>
       </c>
       <c r="D4">
-        <f>Riak!C8</f>
+        <f>'Riak KV'!C8</f>
         <v>803880.33333333337</v>
       </c>
       <c r="E4">
@@ -11002,7 +11005,7 @@
         <v>4801.03800056401</v>
       </c>
       <c r="D5">
-        <f>Riak!C9</f>
+        <f>'Riak KV'!C9</f>
         <v>1283.9777176479602</v>
       </c>
       <c r="E5">
@@ -11026,7 +11029,7 @@
         <v>500157</v>
       </c>
       <c r="D6">
-        <f>Riak!C10</f>
+        <f>'Riak KV'!C10</f>
         <v>500382</v>
       </c>
       <c r="E6">
@@ -11047,7 +11050,7 @@
         <v>836.76528222357695</v>
       </c>
       <c r="D7">
-        <f>Riak!C11</f>
+        <f>'Riak KV'!C11</f>
         <v>2175.8569730388999</v>
       </c>
       <c r="E7">
@@ -11068,7 +11071,7 @@
         <v>325.33333333333331</v>
       </c>
       <c r="D8">
-        <f>Riak!C12</f>
+        <f>'Riak KV'!C12</f>
         <v>861.33333333333337</v>
       </c>
       <c r="E8">
@@ -11089,7 +11092,7 @@
         <v>50473.666666666664</v>
       </c>
       <c r="D9">
-        <f>Riak!C13</f>
+        <f>'Riak KV'!C13</f>
         <v>158271</v>
       </c>
       <c r="E9">
@@ -11110,7 +11113,7 @@
         <v>1281.3333333333333</v>
       </c>
       <c r="D10">
-        <f>Riak!C14</f>
+        <f>'Riak KV'!C14</f>
         <v>3695</v>
       </c>
       <c r="E10">
@@ -11131,7 +11134,7 @@
         <v>1917.3333333333333</v>
       </c>
       <c r="D11">
-        <f>Riak!C15</f>
+        <f>'Riak KV'!C15</f>
         <v>7399</v>
       </c>
       <c r="E11">
@@ -11155,7 +11158,7 @@
         <v>499843</v>
       </c>
       <c r="D12">
-        <f>Riak!C16</f>
+        <f>'Riak KV'!C16</f>
         <v>499618</v>
       </c>
       <c r="E12">
@@ -11176,7 +11179,7 @@
         <v>824.12904984055911</v>
       </c>
       <c r="D13">
-        <f>Riak!C17</f>
+        <f>'Riak KV'!C17</f>
         <v>5941.3298998398968</v>
       </c>
       <c r="E13">
@@ -11197,7 +11200,7 @@
         <v>305</v>
       </c>
       <c r="D14">
-        <f>Riak!C18</f>
+        <f>'Riak KV'!C18</f>
         <v>2526.6666666666665</v>
       </c>
       <c r="E14">
@@ -11218,7 +11221,7 @@
         <v>45375</v>
       </c>
       <c r="D15">
-        <f>Riak!C19</f>
+        <f>'Riak KV'!C19</f>
         <v>167764.33333333334</v>
       </c>
       <c r="E15">
@@ -11239,7 +11242,7 @@
         <v>1264.6666666666667</v>
       </c>
       <c r="D16">
-        <f>Riak!C20</f>
+        <f>'Riak KV'!C20</f>
         <v>9819</v>
       </c>
       <c r="E16">
@@ -11260,7 +11263,7 @@
         <v>1891.6666666666667</v>
       </c>
       <c r="D17">
-        <f>Riak!C21</f>
+        <f>'Riak KV'!C21</f>
         <v>16332.333333333334</v>
       </c>
       <c r="E17">
@@ -11410,7 +11413,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
         <v>2</v>
@@ -11428,7 +11431,7 @@
         <v>212026.33333333334</v>
       </c>
       <c r="D29">
-        <f>Riak!C27</f>
+        <f>'Riak KV'!C27</f>
         <v>562799.66666666663</v>
       </c>
       <c r="E29">
@@ -11449,7 +11452,7 @@
         <v>4726.9578685717897</v>
       </c>
       <c r="D30">
-        <f>Riak!C28</f>
+        <f>'Riak KV'!C28</f>
         <v>1778.1582630532967</v>
       </c>
       <c r="E30">
@@ -11473,7 +11476,7 @@
         <v>949836</v>
       </c>
       <c r="D31">
-        <f>Riak!C29</f>
+        <f>'Riak KV'!C29</f>
         <v>949728</v>
       </c>
       <c r="E31">
@@ -11494,7 +11497,7 @@
         <v>845.21823030995529</v>
       </c>
       <c r="D32">
-        <f>Riak!C30</f>
+        <f>'Riak KV'!C30</f>
         <v>2072.9082253935767</v>
       </c>
       <c r="E32">
@@ -11515,7 +11518,7 @@
         <v>313.66666666666669</v>
       </c>
       <c r="D33">
-        <f>Riak!C31</f>
+        <f>'Riak KV'!C31</f>
         <v>825.33333333333337</v>
       </c>
       <c r="E33">
@@ -11536,7 +11539,7 @@
         <v>50559</v>
       </c>
       <c r="D34">
-        <f>Riak!C32</f>
+        <f>'Riak KV'!C32</f>
         <v>110356.33333333333</v>
       </c>
       <c r="E34">
@@ -11557,7 +11560,7 @@
         <v>1325</v>
       </c>
       <c r="D35">
-        <f>Riak!C33</f>
+        <f>'Riak KV'!C33</f>
         <v>3232.3333333333335</v>
       </c>
       <c r="E35">
@@ -11578,7 +11581,7 @@
         <v>2232.3333333333335</v>
       </c>
       <c r="D36">
-        <f>Riak!C34</f>
+        <f>'Riak KV'!C34</f>
         <v>6805.666666666667</v>
       </c>
       <c r="E36">
@@ -11602,7 +11605,7 @@
         <v>50164</v>
       </c>
       <c r="D37">
-        <f>Riak!C35</f>
+        <f>'Riak KV'!C35</f>
         <v>50272</v>
       </c>
       <c r="E37">
@@ -11623,7 +11626,7 @@
         <v>841.38027581715448</v>
       </c>
       <c r="D38">
-        <f>Riak!C36</f>
+        <f>'Riak KV'!C36</f>
         <v>5827.5136784126071</v>
       </c>
       <c r="E38">
@@ -11644,7 +11647,7 @@
         <v>342</v>
       </c>
       <c r="D39">
-        <f>Riak!C37</f>
+        <f>'Riak KV'!C37</f>
         <v>2765.3333333333335</v>
       </c>
       <c r="E39">
@@ -11665,7 +11668,7 @@
         <v>41449.666666666664</v>
       </c>
       <c r="D40">
-        <f>Riak!C38</f>
+        <f>'Riak KV'!C38</f>
         <v>127231</v>
       </c>
       <c r="E40">
@@ -11686,7 +11689,7 @@
         <v>1322.3333333333333</v>
       </c>
       <c r="D41">
-        <f>Riak!C39</f>
+        <f>'Riak KV'!C39</f>
         <v>8903</v>
       </c>
       <c r="E41">
@@ -11707,7 +11710,7 @@
         <v>2243.3333333333335</v>
       </c>
       <c r="D42">
-        <f>Riak!C40</f>
+        <f>'Riak KV'!C40</f>
         <v>14495</v>
       </c>
       <c r="E42">
@@ -11857,7 +11860,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E53" t="s">
         <v>2</v>
@@ -11875,7 +11878,7 @@
         <v>205492.66666666666</v>
       </c>
       <c r="D54">
-        <f>Riak!C46</f>
+        <f>'Riak KV'!C46</f>
         <v>562029.33333333337</v>
       </c>
       <c r="E54">
@@ -11896,7 +11899,7 @@
         <v>4868.3014319549338</v>
       </c>
       <c r="D55">
-        <f>Riak!C47</f>
+        <f>'Riak KV'!C47</f>
         <v>1783.3907950035066</v>
       </c>
       <c r="E55">
@@ -11920,7 +11923,7 @@
         <v>1000000</v>
       </c>
       <c r="D56">
-        <f>Riak!C48</f>
+        <f>'Riak KV'!C48</f>
         <v>1000000</v>
       </c>
       <c r="E56">
@@ -11941,7 +11944,7 @@
         <v>819.3226933333334</v>
       </c>
       <c r="D57">
-        <f>Riak!C49</f>
+        <f>'Riak KV'!C49</f>
         <v>2241.0063320000004</v>
       </c>
       <c r="E57">
@@ -11962,7 +11965,7 @@
         <v>308.66666666666669</v>
       </c>
       <c r="D58">
-        <f>Riak!C50</f>
+        <f>'Riak KV'!C50</f>
         <v>804.66666666666663</v>
       </c>
       <c r="E58">
@@ -11983,7 +11986,7 @@
         <v>33935</v>
       </c>
       <c r="D59">
-        <f>Riak!C51</f>
+        <f>'Riak KV'!C51</f>
         <v>83903</v>
       </c>
       <c r="E59">
@@ -12004,7 +12007,7 @@
         <v>1213.3333333333333</v>
       </c>
       <c r="D60">
-        <f>Riak!C52</f>
+        <f>'Riak KV'!C52</f>
         <v>3714.3333333333335</v>
       </c>
       <c r="E60">
@@ -12025,7 +12028,7 @@
         <v>1856</v>
       </c>
       <c r="D61">
-        <f>Riak!C53</f>
+        <f>'Riak KV'!C53</f>
         <v>7885.666666666667</v>
       </c>
       <c r="E61">
@@ -12047,8 +12050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E628E191-458C-48C1-BA88-DA60FE101777}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12073,7 +12076,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -12234,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
@@ -12395,7 +12398,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
         <v>2</v>
@@ -12556,7 +12559,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
         <v>2</v>
@@ -13500,8 +13503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8B41AC-D64A-4E90-ABED-E837F425F881}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13512,7 +13515,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
